--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_11_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_11_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1414890.71599707</v>
+        <v>1411915.999800892</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11369724.42984919</v>
+        <v>11369724.42984918</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673426</v>
+        <v>603248.4937673421</v>
       </c>
     </row>
     <row r="9">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="G2" t="n">
         <v>15.21022140383137</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="J2" t="n">
         <v>4.097100052852174</v>
@@ -707,19 +707,19 @@
         <v>50.48273419507654</v>
       </c>
       <c r="S2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>18.28182508062843</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>25.15787082233985</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -741,10 +741,10 @@
         <v>50.48273419507654</v>
       </c>
       <c r="D3" t="n">
-        <v>44.46519227902342</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="E3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>44.4651922790234</v>
       </c>
     </row>
     <row r="4">
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>41.4216011981056</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>41.42160119810562</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>32.22184835001295</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.16194852731947</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>25.3458026083015</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="D6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>53.79631798062264</v>
@@ -1026,13 +1026,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>47.38379687733241</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>52.60630734092062</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>52.60630734092059</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>136.9276081946742</v>
       </c>
       <c r="E8" t="n">
-        <v>177.3542754141761</v>
+        <v>236.9894715873898</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>236.9894715873898</v>
       </c>
       <c r="G8" t="n">
         <v>13.09856773019784</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4996339366141</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.41143768808757</v>
+        <v>11.41143768808769</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7925506119887</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>236.9894715873899</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>236.9894715873899</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>236.9894715873899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>147.2043897507423</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1263,16 +1263,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>130.307700284736</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>236.9894715873898</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>23.45705193892937</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.37067091722156</v>
+        <v>3.370670917221631</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7859975847755</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7210812318639</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>11.85204842770186</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>236.9894715873899</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>236.9894715873899</v>
+        <v>132.7244156222189</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>112.720497638951</v>
+        <v>410.3167162609471</v>
       </c>
       <c r="H11" t="n">
-        <v>288.4117119463156</v>
+        <v>288.4117119463154</v>
       </c>
       <c r="I11" t="n">
-        <v>18.25230516832781</v>
+        <v>18.25230516832733</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>95.4011102564391</v>
+        <v>95.40111025643883</v>
       </c>
       <c r="T11" t="n">
         <v>201.2695415239239</v>
@@ -1430,13 +1430,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>104.6736430876668</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.6757606025383</v>
       </c>
       <c r="H12" t="n">
-        <v>86.47053219000331</v>
+        <v>86.47053219000325</v>
       </c>
       <c r="I12" t="n">
-        <v>7.67198964351897</v>
+        <v>7.671989643518756</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>122.1307630580166</v>
+        <v>122.1307630580164</v>
       </c>
       <c r="T12" t="n">
         <v>189.411797645445</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>45.37727391541978</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.7544218737421</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3421432342315</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>76.72963392800057</v>
       </c>
       <c r="S13" t="n">
-        <v>185.0395007805921</v>
+        <v>185.039500780592</v>
       </c>
       <c r="T13" t="n">
-        <v>218.3893892663104</v>
+        <v>218.3893892663103</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.19703531187</v>
       </c>
       <c r="V13" t="n">
-        <v>41.72562817327694</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754638</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.32106446353023</v>
+        <v>84.61259060081967</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952163</v>
       </c>
       <c r="T15" t="n">
         <v>188.3907690366107</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108361</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>26.24710713842171</v>
+        <v>28.77599114036011</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>304.3915154833934</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081967</v>
       </c>
       <c r="T17" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9088959876463</v>
+        <v>200.6173698503534</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1938,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952163</v>
       </c>
       <c r="T18" t="n">
         <v>188.3907690366107</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>86.27179222793481</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440906</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108361</v>
       </c>
       <c r="S19" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4819944627618</v>
+        <v>143.7796594121392</v>
       </c>
       <c r="U19" t="n">
         <v>286.1854515484204</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337145</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>359.5517498754663</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
         <v>283.5630920045443</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081973</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>16.86583425217253</v>
       </c>
       <c r="E22" t="n">
-        <v>18.92873806063728</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1854515484204</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T23" t="n">
         <v>199.1970568374742</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>64.44601915223787</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S25" t="n">
         <v>181.338488358459</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>9.807009915247733</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T26" t="n">
         <v>199.1970568374742</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>74.91025708412478</v>
       </c>
       <c r="H28" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
@@ -2770,7 +2770,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V28" t="n">
-        <v>229.6655464764174</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T29" t="n">
         <v>199.1970568374742</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>23.94516103140383</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S31" t="n">
-        <v>181.338488358459</v>
+        <v>105.3305177187426</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081973</v>
       </c>
       <c r="T32" t="n">
         <v>199.1970568374742</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>84.56702400647241</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S34" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T34" t="n">
-        <v>73.33373692807521</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U34" t="n">
         <v>286.1854515484204</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>172.5112693098269</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1854515484204</v>
+        <v>158.680226962488</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>8.099360810322009</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
         <v>140.4539897919539</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S40" t="n">
-        <v>181.338488358459</v>
+        <v>174.1970391632924</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1854515484204</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T41" t="n">
         <v>199.1970568374742</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>64.44601915223787</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S43" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1854515484204</v>
+        <v>233.1568659443719</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127565</v>
       </c>
       <c r="H44" t="n">
         <v>283.5630920045443</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T44" t="n">
         <v>199.1970568374742</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>64.44601915223787</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.338488358459</v>
@@ -4192,7 +4192,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>172.452454535126</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30.48646439055056</v>
+        <v>125.5262852475623</v>
       </c>
       <c r="C2" t="n">
-        <v>30.48646439055056</v>
+        <v>125.5262852475623</v>
       </c>
       <c r="D2" t="n">
-        <v>30.48646439055056</v>
+        <v>125.5262852475623</v>
       </c>
       <c r="E2" t="n">
-        <v>30.48646439055056</v>
+        <v>125.5262852475623</v>
       </c>
       <c r="F2" t="n">
-        <v>23.54096364134708</v>
+        <v>74.5336244444547</v>
       </c>
       <c r="G2" t="n">
-        <v>8.177103637477007</v>
+        <v>59.16976444058463</v>
       </c>
       <c r="H2" t="n">
-        <v>8.177103637477007</v>
+        <v>59.16976444058463</v>
       </c>
       <c r="I2" t="n">
         <v>8.177103637477007</v>
@@ -4331,16 +4331,16 @@
         <v>4.038618735606123</v>
       </c>
       <c r="K2" t="n">
-        <v>4.038618735606123</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="L2" t="n">
         <v>54.01652558873189</v>
       </c>
       <c r="M2" t="n">
+        <v>54.01652558873189</v>
+      </c>
+      <c r="N2" t="n">
         <v>103.9944324418577</v>
-      </c>
-      <c r="N2" t="n">
-        <v>153.9723392949834</v>
       </c>
       <c r="O2" t="n">
         <v>153.9723392949834</v>
@@ -4355,25 +4355,25 @@
         <v>150.9382759771985</v>
       </c>
       <c r="S2" t="n">
-        <v>99.94561517409093</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="T2" t="n">
-        <v>81.47912519365818</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="U2" t="n">
-        <v>30.48646439055056</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="V2" t="n">
-        <v>30.48646439055056</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="W2" t="n">
-        <v>30.48646439055056</v>
+        <v>125.5262852475623</v>
       </c>
       <c r="X2" t="n">
-        <v>30.48646439055056</v>
+        <v>125.5262852475623</v>
       </c>
       <c r="Y2" t="n">
-        <v>30.48646439055056</v>
+        <v>125.5262852475623</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.9382759771985</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="C3" t="n">
-        <v>99.94561517409093</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="D3" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="E3" t="n">
         <v>4.038618735606123</v>
@@ -4413,16 +4413,16 @@
         <v>4.038618735606123</v>
       </c>
       <c r="L3" t="n">
-        <v>51.99721622092883</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="M3" t="n">
         <v>101.9751230740546</v>
       </c>
       <c r="N3" t="n">
-        <v>151.9530299271804</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="O3" t="n">
-        <v>151.9530299271804</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="P3" t="n">
         <v>151.9530299271804</v>
@@ -4452,7 +4452,7 @@
         <v>201.9309367803062</v>
       </c>
       <c r="Y3" t="n">
-        <v>201.9309367803062</v>
+        <v>157.016601144929</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.4955226870186</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="C4" t="n">
-        <v>114.4955226870186</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="D4" t="n">
-        <v>114.4955226870186</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="E4" t="n">
-        <v>72.65552147681089</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="F4" t="n">
-        <v>72.65552147681089</v>
+        <v>109.0982747669908</v>
       </c>
       <c r="G4" t="n">
-        <v>72.65552147681089</v>
+        <v>109.0982747669908</v>
       </c>
       <c r="H4" t="n">
-        <v>72.65552147681089</v>
+        <v>109.0982747669908</v>
       </c>
       <c r="I4" t="n">
-        <v>72.65552147681089</v>
+        <v>109.0982747669908</v>
       </c>
       <c r="J4" t="n">
-        <v>21.66286067370327</v>
+        <v>58.10561396388323</v>
       </c>
       <c r="K4" t="n">
-        <v>4.038618735606123</v>
+        <v>40.48137202578608</v>
       </c>
       <c r="L4" t="n">
-        <v>37.46089541307574</v>
+        <v>73.9036487032557</v>
       </c>
       <c r="M4" t="n">
-        <v>83.0891231149967</v>
+        <v>119.5318764051767</v>
       </c>
       <c r="N4" t="n">
-        <v>133.0670299681225</v>
+        <v>169.5097832583024</v>
       </c>
       <c r="O4" t="n">
-        <v>163.2134205911211</v>
+        <v>199.656173881301</v>
       </c>
       <c r="P4" t="n">
-        <v>165.4881834901262</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="Q4" t="n">
-        <v>114.4955226870186</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="R4" t="n">
-        <v>114.4955226870186</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="S4" t="n">
-        <v>114.4955226870186</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="T4" t="n">
-        <v>114.4955226870186</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="U4" t="n">
-        <v>114.4955226870186</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="V4" t="n">
-        <v>114.4955226870186</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="W4" t="n">
-        <v>114.4955226870186</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="X4" t="n">
-        <v>114.4955226870186</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="Y4" t="n">
-        <v>114.4955226870186</v>
+        <v>150.9382759771985</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.16612652666438</v>
+        <v>135.2437359740823</v>
       </c>
       <c r="C5" t="n">
-        <v>52.16612652666438</v>
+        <v>80.90402084214027</v>
       </c>
       <c r="D5" t="n">
-        <v>52.16612652666438</v>
+        <v>80.90402084214027</v>
       </c>
       <c r="E5" t="n">
-        <v>52.16612652666438</v>
+        <v>80.90402084214027</v>
       </c>
       <c r="F5" t="n">
-        <v>19.61880496099473</v>
+        <v>73.95852009293679</v>
       </c>
       <c r="G5" t="n">
-        <v>4.303705438449811</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="H5" t="n">
-        <v>4.303705438449811</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="I5" t="n">
         <v>4.303705438449811</v>
@@ -4568,16 +4568,16 @@
         <v>4.303705438449811</v>
       </c>
       <c r="K5" t="n">
-        <v>57.56206023926622</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="L5" t="n">
-        <v>110.8204150400826</v>
+        <v>55.4102075200413</v>
       </c>
       <c r="M5" t="n">
-        <v>164.078769840899</v>
+        <v>108.6685623208577</v>
       </c>
       <c r="N5" t="n">
-        <v>215.1852719224906</v>
+        <v>161.9269171216741</v>
       </c>
       <c r="O5" t="n">
         <v>215.1852719224906</v>
@@ -4589,28 +4589,28 @@
         <v>215.1852719224906</v>
       </c>
       <c r="R5" t="n">
-        <v>215.1852719224906</v>
+        <v>189.5834511060244</v>
       </c>
       <c r="S5" t="n">
-        <v>215.1852719224906</v>
+        <v>189.5834511060244</v>
       </c>
       <c r="T5" t="n">
-        <v>160.8455567905485</v>
+        <v>135.2437359740823</v>
       </c>
       <c r="U5" t="n">
-        <v>160.8455567905485</v>
+        <v>135.2437359740823</v>
       </c>
       <c r="V5" t="n">
-        <v>106.5058416586064</v>
+        <v>135.2437359740823</v>
       </c>
       <c r="W5" t="n">
-        <v>52.16612652666438</v>
+        <v>135.2437359740823</v>
       </c>
       <c r="X5" t="n">
-        <v>52.16612652666438</v>
+        <v>135.2437359740823</v>
       </c>
       <c r="Y5" t="n">
-        <v>52.16612652666438</v>
+        <v>135.2437359740823</v>
       </c>
     </row>
     <row r="6">
@@ -4623,7 +4623,7 @@
         <v>112.9831357023339</v>
       </c>
       <c r="C6" t="n">
-        <v>112.9831357023339</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="D6" t="n">
         <v>58.64342057039187</v>
@@ -4647,22 +4647,22 @@
         <v>4.303705438449811</v>
       </c>
       <c r="K6" t="n">
-        <v>57.56206023926622</v>
+        <v>55.4102075200413</v>
       </c>
       <c r="L6" t="n">
-        <v>110.8204150400826</v>
+        <v>108.6685623208577</v>
       </c>
       <c r="M6" t="n">
-        <v>161.9269171216741</v>
+        <v>108.6685623208577</v>
       </c>
       <c r="N6" t="n">
         <v>161.9269171216741</v>
       </c>
       <c r="O6" t="n">
-        <v>161.9269171216741</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="P6" t="n">
-        <v>161.9269171216741</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="Q6" t="n">
         <v>215.1852719224906</v>
@@ -4674,10 +4674,10 @@
         <v>215.1852719224906</v>
       </c>
       <c r="T6" t="n">
+        <v>215.1852719224906</v>
+      </c>
+      <c r="U6" t="n">
         <v>160.8455567905485</v>
-      </c>
-      <c r="U6" t="n">
-        <v>112.9831357023339</v>
       </c>
       <c r="V6" t="n">
         <v>112.9831357023339</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.52447108151307</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="C7" t="n">
-        <v>72.52447108151307</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="D7" t="n">
-        <v>19.38678689876497</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="E7" t="n">
-        <v>19.38678689876497</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="F7" t="n">
-        <v>19.38678689876497</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="G7" t="n">
         <v>19.38678689876497</v>
@@ -4744,31 +4744,31 @@
         <v>181.2039013453972</v>
       </c>
       <c r="Q7" t="n">
-        <v>126.8641862134551</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="R7" t="n">
-        <v>126.8641862134551</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="S7" t="n">
-        <v>72.52447108151307</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="T7" t="n">
-        <v>72.52447108151307</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="U7" t="n">
-        <v>72.52447108151307</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="V7" t="n">
-        <v>72.52447108151307</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="W7" t="n">
-        <v>72.52447108151307</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="X7" t="n">
-        <v>72.52447108151307</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="Y7" t="n">
-        <v>72.52447108151307</v>
+        <v>128.0662171626491</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>218.2812677129361</v>
+        <v>776.0346658444314</v>
       </c>
       <c r="C8" t="n">
-        <v>218.2812677129361</v>
+        <v>776.0346658444314</v>
       </c>
       <c r="D8" t="n">
-        <v>218.2812677129361</v>
+        <v>637.7239504962756</v>
       </c>
       <c r="E8" t="n">
-        <v>39.135534971344</v>
+        <v>398.3406458625485</v>
       </c>
       <c r="F8" t="n">
-        <v>32.19003422214053</v>
+        <v>158.9573412288215</v>
       </c>
       <c r="G8" t="n">
-        <v>18.95915772699119</v>
+        <v>145.7264647336721</v>
       </c>
       <c r="H8" t="n">
-        <v>18.95915772699119</v>
+        <v>145.7264647336721</v>
       </c>
       <c r="I8" t="n">
-        <v>18.95915772699119</v>
+        <v>18.95915772699118</v>
       </c>
       <c r="J8" t="n">
-        <v>24.92910597704329</v>
+        <v>44.72588097940334</v>
       </c>
       <c r="K8" t="n">
-        <v>84.61502910041229</v>
+        <v>279.3454578509192</v>
       </c>
       <c r="L8" t="n">
-        <v>319.2346059719283</v>
+        <v>390.2928851337458</v>
       </c>
       <c r="M8" t="n">
-        <v>474.3544335487908</v>
+        <v>545.4127127106079</v>
       </c>
       <c r="N8" t="n">
-        <v>636.5980704874667</v>
+        <v>707.6563496492835</v>
       </c>
       <c r="O8" t="n">
         <v>847.5231540751345</v>
       </c>
       <c r="P8" t="n">
-        <v>932.3952348607578</v>
+        <v>932.3952348607575</v>
       </c>
       <c r="Q8" t="n">
-        <v>947.9578863495597</v>
+        <v>947.9578863495591</v>
       </c>
       <c r="R8" t="n">
-        <v>936.4311816141177</v>
+        <v>936.431181614117</v>
       </c>
       <c r="S8" t="n">
-        <v>936.4311816141177</v>
+        <v>776.0346658444314</v>
       </c>
       <c r="T8" t="n">
-        <v>936.4311816141177</v>
+        <v>776.0346658444314</v>
       </c>
       <c r="U8" t="n">
-        <v>936.4311816141177</v>
+        <v>776.0346658444314</v>
       </c>
       <c r="V8" t="n">
-        <v>697.0478769803905</v>
+        <v>776.0346658444314</v>
       </c>
       <c r="W8" t="n">
-        <v>457.6645723466632</v>
+        <v>776.0346658444314</v>
       </c>
       <c r="X8" t="n">
-        <v>457.6645723466632</v>
+        <v>776.0346658444314</v>
       </c>
       <c r="Y8" t="n">
-        <v>218.2812677129361</v>
+        <v>776.0346658444314</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>648.11860964794</v>
+        <v>473.4224734840893</v>
       </c>
       <c r="C9" t="n">
-        <v>473.665580366813</v>
+        <v>473.4224734840893</v>
       </c>
       <c r="D9" t="n">
         <v>324.7311707055617</v>
@@ -4869,64 +4869,64 @@
         <v>165.4937157001062</v>
       </c>
       <c r="F9" t="n">
-        <v>18.95915772699119</v>
+        <v>18.95915772699118</v>
       </c>
       <c r="G9" t="n">
-        <v>18.95915772699119</v>
+        <v>18.95915772699118</v>
       </c>
       <c r="H9" t="n">
-        <v>18.95915772699119</v>
+        <v>18.95915772699118</v>
       </c>
       <c r="I9" t="n">
-        <v>18.95915772699119</v>
+        <v>18.95915772699118</v>
       </c>
       <c r="J9" t="n">
-        <v>128.5270960364944</v>
+        <v>18.95915772699118</v>
       </c>
       <c r="K9" t="n">
-        <v>180.5964128042408</v>
+        <v>71.02847449473745</v>
       </c>
       <c r="L9" t="n">
-        <v>296.9325761064273</v>
+        <v>305.6480513662533</v>
       </c>
       <c r="M9" t="n">
-        <v>452.0482596300186</v>
+        <v>460.7637348898444</v>
       </c>
       <c r="N9" t="n">
-        <v>625.6780386511051</v>
+        <v>634.3935139109307</v>
       </c>
       <c r="O9" t="n">
-        <v>847.1896528280125</v>
+        <v>847.1896528280122</v>
       </c>
       <c r="P9" t="n">
-        <v>937.5041998471468</v>
+        <v>937.5041998471463</v>
       </c>
       <c r="Q9" t="n">
-        <v>947.9578863495597</v>
+        <v>947.9578863495591</v>
       </c>
       <c r="R9" t="n">
-        <v>947.9578863495597</v>
+        <v>947.9578863495591</v>
       </c>
       <c r="S9" t="n">
-        <v>947.9578863495597</v>
+        <v>947.9578863495591</v>
       </c>
       <c r="T9" t="n">
-        <v>816.3339466680081</v>
+        <v>947.9578863495591</v>
       </c>
       <c r="U9" t="n">
-        <v>816.3339466680081</v>
+        <v>947.9578863495591</v>
       </c>
       <c r="V9" t="n">
-        <v>816.3339466680081</v>
+        <v>712.8057781178163</v>
       </c>
       <c r="W9" t="n">
-        <v>816.3339466680081</v>
+        <v>473.4224734840893</v>
       </c>
       <c r="X9" t="n">
-        <v>816.3339466680081</v>
+        <v>473.4224734840893</v>
       </c>
       <c r="Y9" t="n">
-        <v>816.3339466680081</v>
+        <v>473.4224734840893</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.95915772699119</v>
+        <v>361.7059719247383</v>
       </c>
       <c r="C10" t="n">
-        <v>18.95915772699119</v>
+        <v>192.7697889968313</v>
       </c>
       <c r="D10" t="n">
-        <v>18.95915772699119</v>
+        <v>42.65314958449559</v>
       </c>
       <c r="E10" t="n">
-        <v>18.95915772699119</v>
+        <v>42.65314958449559</v>
       </c>
       <c r="F10" t="n">
-        <v>18.95915772699119</v>
+        <v>42.65314958449559</v>
       </c>
       <c r="G10" t="n">
-        <v>18.95915772699119</v>
+        <v>42.65314958449559</v>
       </c>
       <c r="H10" t="n">
-        <v>18.95915772699119</v>
+        <v>42.65314958449559</v>
       </c>
       <c r="I10" t="n">
-        <v>18.95915772699119</v>
+        <v>42.65314958449559</v>
       </c>
       <c r="J10" t="n">
-        <v>18.95915772699119</v>
+        <v>18.95915772699118</v>
       </c>
       <c r="K10" t="n">
-        <v>110.6343238038656</v>
+        <v>110.6343238038658</v>
       </c>
       <c r="L10" t="n">
-        <v>283.47340833024</v>
+        <v>283.4734083302399</v>
       </c>
       <c r="M10" t="n">
-        <v>476.0971122299512</v>
+        <v>476.097112229951</v>
       </c>
       <c r="N10" t="n">
-        <v>669.575271407928</v>
+        <v>669.5752714079276</v>
       </c>
       <c r="O10" t="n">
-        <v>832.2673712418089</v>
+        <v>832.2673712418084</v>
       </c>
       <c r="P10" t="n">
-        <v>947.9578863495597</v>
+        <v>947.9578863495591</v>
       </c>
       <c r="Q10" t="n">
-        <v>944.5531682513561</v>
+        <v>944.5531682513554</v>
       </c>
       <c r="R10" t="n">
-        <v>944.5531682513561</v>
+        <v>944.5531682513554</v>
       </c>
       <c r="S10" t="n">
-        <v>735.6784232162292</v>
+        <v>944.5531682513554</v>
       </c>
       <c r="T10" t="n">
-        <v>509.6975330830334</v>
+        <v>944.5531682513554</v>
       </c>
       <c r="U10" t="n">
-        <v>497.7257669944456</v>
+        <v>944.5531682513554</v>
       </c>
       <c r="V10" t="n">
-        <v>258.3424623607184</v>
+        <v>944.5531682513554</v>
       </c>
       <c r="W10" t="n">
-        <v>18.95915772699119</v>
+        <v>810.4881019662857</v>
       </c>
       <c r="X10" t="n">
-        <v>18.95915772699119</v>
+        <v>582.4985510682684</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.95915772699119</v>
+        <v>361.7059719247383</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2028.889213778993</v>
+        <v>1960.5289378709</v>
       </c>
       <c r="C11" t="n">
-        <v>1659.926696838581</v>
+        <v>1960.5289378709</v>
       </c>
       <c r="D11" t="n">
-        <v>1301.660998231831</v>
+        <v>1602.263239264149</v>
       </c>
       <c r="E11" t="n">
-        <v>915.8727456335864</v>
+        <v>1216.474986665905</v>
       </c>
       <c r="F11" t="n">
-        <v>504.8868408439787</v>
+        <v>805.4890818762973</v>
       </c>
       <c r="G11" t="n">
-        <v>391.0277523197853</v>
+        <v>391.027752319785</v>
       </c>
       <c r="H11" t="n">
-        <v>99.70279075785041</v>
+        <v>99.70279075785022</v>
       </c>
       <c r="I11" t="n">
-        <v>81.26611887065062</v>
+        <v>81.2661188706509</v>
       </c>
       <c r="J11" t="n">
-        <v>320.981171597633</v>
+        <v>320.9811715976348</v>
       </c>
       <c r="K11" t="n">
-        <v>730.9904141643792</v>
+        <v>730.9904141643824</v>
       </c>
       <c r="L11" t="n">
-        <v>1276.544896923643</v>
+        <v>1276.544896923647</v>
       </c>
       <c r="M11" t="n">
-        <v>1915.248813532565</v>
+        <v>1915.248813532572</v>
       </c>
       <c r="N11" t="n">
-        <v>2568.901435635439</v>
+        <v>2568.901435635449</v>
       </c>
       <c r="O11" t="n">
-        <v>3172.791810033601</v>
+        <v>3172.791810033613</v>
       </c>
       <c r="P11" t="n">
-        <v>3653.697272225881</v>
+        <v>3653.697272225894</v>
       </c>
       <c r="Q11" t="n">
-        <v>3966.664499936226</v>
+        <v>3966.66449993624</v>
       </c>
       <c r="R11" t="n">
-        <v>4063.30594353253</v>
+        <v>4063.305943532545</v>
       </c>
       <c r="S11" t="n">
-        <v>3966.941185697744</v>
+        <v>3966.941185697758</v>
       </c>
       <c r="T11" t="n">
-        <v>3763.638618501861</v>
+        <v>3763.638618501875</v>
       </c>
       <c r="U11" t="n">
-        <v>3510.157031423577</v>
+        <v>3510.157031423591</v>
       </c>
       <c r="V11" t="n">
-        <v>3179.094144080006</v>
+        <v>3179.094144080021</v>
       </c>
       <c r="W11" t="n">
-        <v>3179.094144080006</v>
+        <v>2826.325488809906</v>
       </c>
       <c r="X11" t="n">
-        <v>2805.628385818926</v>
+        <v>2452.859730548827</v>
       </c>
       <c r="Y11" t="n">
-        <v>2415.489053843115</v>
+        <v>2347.128777935021</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>176.3595752681479</v>
       </c>
       <c r="H12" t="n">
-        <v>89.01560335905361</v>
+        <v>89.01560335905369</v>
       </c>
       <c r="I12" t="n">
-        <v>81.26611887065062</v>
+        <v>81.2661188706509</v>
       </c>
       <c r="J12" t="n">
-        <v>205.2209151053344</v>
+        <v>205.2209151053353</v>
       </c>
       <c r="K12" t="n">
-        <v>495.2342298247975</v>
+        <v>205.2209151053353</v>
       </c>
       <c r="L12" t="n">
-        <v>931.5154624862403</v>
+        <v>641.5021477667794</v>
       </c>
       <c r="M12" t="n">
-        <v>1459.991951118088</v>
+        <v>1169.978636398629</v>
       </c>
       <c r="N12" t="n">
-        <v>2016.864284788897</v>
+        <v>1726.85097006944</v>
       </c>
       <c r="O12" t="n">
-        <v>2358.958079709616</v>
+        <v>1987.262491790302</v>
       </c>
       <c r="P12" t="n">
-        <v>2358.958079709616</v>
+        <v>2358.958079709615</v>
       </c>
       <c r="Q12" t="n">
         <v>2557.507540348617</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>838.9019249520363</v>
+        <v>395.5847753319371</v>
       </c>
       <c r="C13" t="n">
-        <v>669.9657420241294</v>
+        <v>395.5847753319371</v>
       </c>
       <c r="D13" t="n">
-        <v>519.8491026117938</v>
+        <v>395.5847753319371</v>
       </c>
       <c r="E13" t="n">
-        <v>371.9360090294009</v>
+        <v>395.5847753319371</v>
       </c>
       <c r="F13" t="n">
-        <v>225.0460615314905</v>
+        <v>248.6948278340268</v>
       </c>
       <c r="G13" t="n">
-        <v>225.0460615314905</v>
+        <v>81.2661188706509</v>
       </c>
       <c r="H13" t="n">
-        <v>81.26611887065062</v>
+        <v>81.2661188706509</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26611887065062</v>
+        <v>81.2661188706509</v>
       </c>
       <c r="J13" t="n">
-        <v>145.3838985829171</v>
+        <v>145.3838985829178</v>
       </c>
       <c r="K13" t="n">
-        <v>380.5859435674023</v>
+        <v>380.5859435674035</v>
       </c>
       <c r="L13" t="n">
-        <v>737.0900185206203</v>
+        <v>737.0900185206224</v>
       </c>
       <c r="M13" t="n">
-        <v>1123.362703093565</v>
+        <v>1123.362703093568</v>
       </c>
       <c r="N13" t="n">
-        <v>1505.88530301112</v>
+        <v>1505.885303011124</v>
       </c>
       <c r="O13" t="n">
-        <v>1843.19054159739</v>
+        <v>1843.190541597394</v>
       </c>
       <c r="P13" t="n">
-        <v>2108.292762259668</v>
+        <v>2108.292762259673</v>
       </c>
       <c r="Q13" t="n">
-        <v>2208.400718366016</v>
+        <v>2208.400718366021</v>
       </c>
       <c r="R13" t="n">
-        <v>2208.400718366016</v>
+        <v>2130.896037630667</v>
       </c>
       <c r="S13" t="n">
-        <v>2021.492131718953</v>
+        <v>1943.987450983605</v>
       </c>
       <c r="T13" t="n">
-        <v>1800.89678902571</v>
+        <v>1723.392108290362</v>
       </c>
       <c r="U13" t="n">
-        <v>1800.89678902571</v>
+        <v>1434.304193833928</v>
       </c>
       <c r="V13" t="n">
-        <v>1758.749689860784</v>
+        <v>1179.619705628041</v>
       </c>
       <c r="W13" t="n">
-        <v>1469.332519823824</v>
+        <v>890.2025355910803</v>
       </c>
       <c r="X13" t="n">
-        <v>1241.342968925806</v>
+        <v>662.2129846930629</v>
       </c>
       <c r="Y13" t="n">
-        <v>1020.550389782276</v>
+        <v>441.4204055495328</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.46243061463</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.19673200788</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.408479409636</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200282</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
         <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608047</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.307498725193</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128774</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957691</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874792</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.60923933393</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021278</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127285</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304023</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070872</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750191</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608047</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608047</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608047</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608047</v>
       </c>
       <c r="L15" t="n">
-        <v>583.5439560698319</v>
+        <v>583.5439560698316</v>
       </c>
       <c r="M15" t="n">
-        <v>1175.56231032196</v>
+        <v>1175.562310321959</v>
       </c>
       <c r="N15" t="n">
-        <v>1797.658273721296</v>
+        <v>1797.658273721295</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2344.534748721489</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.385284034031</v>
+        <v>867.8413048512242</v>
       </c>
       <c r="C16" t="n">
-        <v>929.4491011061236</v>
+        <v>698.9051219233173</v>
       </c>
       <c r="D16" t="n">
-        <v>779.332461693788</v>
+        <v>548.7884825109816</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113948</v>
+        <v>548.7884825109816</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134845</v>
+        <v>401.8985350130712</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880633</v>
+        <v>234.6843401876501</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608047</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608047</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861978</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693318</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020527</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856731</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410166</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.51642936867</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.51642936867</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="T16" t="n">
-        <v>2334.004199935921</v>
+        <v>2331.449771651132</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.927986250648</v>
+        <v>2042.373557965859</v>
       </c>
       <c r="V16" t="n">
-        <v>1790.243498044761</v>
+        <v>1787.689069759972</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.8263280078</v>
+        <v>1498.271899723011</v>
       </c>
       <c r="X16" t="n">
-        <v>1500.8263280078</v>
+        <v>1270.282348824994</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.03374886427</v>
+        <v>1049.489769681464</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2266.424947555046</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C17" t="n">
-        <v>1897.462430614635</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D17" t="n">
         <v>1589.996253358682</v>
@@ -5507,58 +5507,58 @@
         <v>379.2389888872364</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608088</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128774</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874797</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S17" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T17" t="n">
-        <v>4353.904749750195</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U17" t="n">
-        <v>4100.461420469745</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V17" t="n">
-        <v>3769.398533126174</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W17" t="n">
-        <v>3416.629877856059</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X17" t="n">
-        <v>3043.16411959498</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y17" t="n">
-        <v>2653.024787619168</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="18">
@@ -5580,34 +5580,34 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G18" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J18" t="n">
-        <v>240.4596049779265</v>
+        <v>240.4596049779263</v>
       </c>
       <c r="K18" t="n">
-        <v>570.9683475412853</v>
+        <v>570.9683475412849</v>
       </c>
       <c r="L18" t="n">
-        <v>1061.700680385037</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M18" t="n">
-        <v>1653.719034637164</v>
+        <v>1653.719034637163</v>
       </c>
       <c r="N18" t="n">
-        <v>2275.814998036501</v>
+        <v>2275.814998036499</v>
       </c>
       <c r="O18" t="n">
-        <v>2552.77562977024</v>
+        <v>2275.814998036499</v>
       </c>
       <c r="P18" t="n">
         <v>2552.77562977024</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>494.0589900220735</v>
+        <v>789.2983722470398</v>
       </c>
       <c r="C19" t="n">
-        <v>494.0589900220735</v>
+        <v>620.3621893191329</v>
       </c>
       <c r="D19" t="n">
-        <v>406.9157655494121</v>
+        <v>470.2455499067971</v>
       </c>
       <c r="E19" t="n">
-        <v>406.9157655494121</v>
+        <v>322.332456324404</v>
       </c>
       <c r="F19" t="n">
-        <v>260.0258180515017</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="G19" t="n">
-        <v>92.81162322608056</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="H19" t="n">
-        <v>92.81162322608056</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861978</v>
       </c>
       <c r="L19" t="n">
-        <v>819.1842911693324</v>
+        <v>819.1842911693318</v>
       </c>
       <c r="M19" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N19" t="n">
         <v>1653.109749005498</v>
       </c>
       <c r="O19" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020527</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856731</v>
       </c>
       <c r="Q19" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410166</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.516429368669</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S19" t="n">
-        <v>2177.3462391076</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T19" t="n">
-        <v>1957.667456821982</v>
+        <v>2032.114259903418</v>
       </c>
       <c r="U19" t="n">
-        <v>1668.591243136708</v>
+        <v>1743.038046218144</v>
       </c>
       <c r="V19" t="n">
-        <v>1413.906754930822</v>
+        <v>1488.353558012258</v>
       </c>
       <c r="W19" t="n">
-        <v>1124.489584893861</v>
+        <v>1198.936387975297</v>
       </c>
       <c r="X19" t="n">
-        <v>896.5000339958435</v>
+        <v>970.9468370772795</v>
       </c>
       <c r="Y19" t="n">
-        <v>675.7074548523134</v>
+        <v>970.9468370772795</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2266.424947555045</v>
+        <v>2266.424947555043</v>
       </c>
       <c r="C20" t="n">
-        <v>1897.462430614633</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D20" t="n">
-        <v>1539.196732007882</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E20" t="n">
-        <v>1153.408479409638</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F20" t="n">
-        <v>742.4225746200307</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128765</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750193</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U20" t="n">
-        <v>4100.461420469743</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V20" t="n">
-        <v>3769.398533126172</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W20" t="n">
-        <v>3416.629877856058</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X20" t="n">
-        <v>3043.164119594978</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y20" t="n">
-        <v>2653.024787619166</v>
+        <v>2653.024787619165</v>
       </c>
     </row>
     <row r="21">
@@ -5823,16 +5823,16 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I21" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J21" t="n">
-        <v>240.4596049779265</v>
+        <v>240.4596049779263</v>
       </c>
       <c r="K21" t="n">
-        <v>570.9683475412852</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L21" t="n">
         <v>1061.700680385036</v>
@@ -5841,7 +5841,7 @@
         <v>1653.719034637164</v>
       </c>
       <c r="N21" t="n">
-        <v>2275.8149980365</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O21" t="n">
         <v>2552.77562977024</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>745.0885253246418</v>
+        <v>713.7377723076904</v>
       </c>
       <c r="C22" t="n">
-        <v>576.1523423967349</v>
+        <v>713.7377723076904</v>
       </c>
       <c r="D22" t="n">
-        <v>426.0357029843992</v>
+        <v>696.7015760933747</v>
       </c>
       <c r="E22" t="n">
-        <v>406.9157655494121</v>
+        <v>548.7884825109816</v>
       </c>
       <c r="F22" t="n">
-        <v>260.0258180515017</v>
+        <v>401.8985350130712</v>
       </c>
       <c r="G22" t="n">
-        <v>92.81162322608053</v>
+        <v>234.6843401876501</v>
       </c>
       <c r="H22" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K22" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L22" t="n">
-        <v>819.1842911693323</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M22" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N22" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O22" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020527</v>
       </c>
       <c r="P22" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q22" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R22" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S22" t="n">
-        <v>2428.375774410168</v>
+        <v>2177.346239107598</v>
       </c>
       <c r="T22" t="n">
-        <v>2208.69699212455</v>
+        <v>2177.346239107598</v>
       </c>
       <c r="U22" t="n">
-        <v>1919.620778439277</v>
+        <v>1888.270025422325</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.93629023339</v>
+        <v>1633.585537216438</v>
       </c>
       <c r="W22" t="n">
-        <v>1375.519120196429</v>
+        <v>1344.168367179478</v>
       </c>
       <c r="X22" t="n">
-        <v>1147.529569298412</v>
+        <v>1116.17881628146</v>
       </c>
       <c r="Y22" t="n">
-        <v>926.7369901548815</v>
+        <v>895.3862371379302</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D23" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E23" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963575</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G23" t="n">
         <v>380.275713812763</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J23" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384016</v>
       </c>
       <c r="L23" t="n">
         <v>1462.494387944176</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883213</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800319</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.645964259457</v>
       </c>
       <c r="P23" t="n">
-        <v>4151.951912946806</v>
+        <v>4151.951912946805</v>
       </c>
       <c r="Q23" t="n">
-        <v>4515.534099052813</v>
+        <v>4515.534099052812</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.950144347203</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.740996026521</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="24">
@@ -6060,28 +6060,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160706</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K24" t="n">
-        <v>302.0892292003572</v>
+        <v>572.0050724668116</v>
       </c>
       <c r="L24" t="n">
-        <v>792.8215620441084</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M24" t="n">
-        <v>1384.839916296236</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N24" t="n">
-        <v>2006.935879695572</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.812354695766</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="P24" t="n">
         <v>2553.812354695766</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>495.0957149475996</v>
+        <v>705.9822234696675</v>
       </c>
       <c r="C25" t="n">
-        <v>326.1595320196927</v>
+        <v>705.9822234696675</v>
       </c>
       <c r="D25" t="n">
-        <v>326.1595320196927</v>
+        <v>555.8655840573317</v>
       </c>
       <c r="E25" t="n">
-        <v>326.1595320196927</v>
+        <v>407.9524904749386</v>
       </c>
       <c r="F25" t="n">
-        <v>326.1595320196927</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G25" t="n">
-        <v>158.9453371942716</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411608</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117244</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L25" t="n">
         <v>820.2210160948587</v>
@@ -6160,7 +6160,7 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P25" t="n">
         <v>2311.699365782259</v>
@@ -6175,7 +6175,7 @@
         <v>2178.382964033126</v>
       </c>
       <c r="T25" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747507</v>
       </c>
       <c r="U25" t="n">
         <v>1669.627968062234</v>
@@ -6187,10 +6187,10 @@
         <v>1125.526309819387</v>
       </c>
       <c r="X25" t="n">
-        <v>897.5367589213695</v>
+        <v>897.5367589213696</v>
       </c>
       <c r="Y25" t="n">
-        <v>676.7441797778393</v>
+        <v>887.6306882999072</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H26" t="n">
         <v>93.84834815160703</v>
@@ -6227,25 +6227,25 @@
         <v>373.3442236507199</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384016</v>
       </c>
       <c r="L26" t="n">
         <v>1462.494387944176</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883213</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800319</v>
       </c>
       <c r="O26" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.645964259457</v>
       </c>
       <c r="P26" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q26" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R26" t="n">
         <v>4692.417407580351</v>
@@ -6306,25 +6306,25 @@
         <v>241.4963299034529</v>
       </c>
       <c r="K27" t="n">
-        <v>241.4963299034529</v>
+        <v>572.0050724668115</v>
       </c>
       <c r="L27" t="n">
-        <v>241.4963299034529</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M27" t="n">
-        <v>699.3689196510031</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N27" t="n">
-        <v>1321.464883050339</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O27" t="n">
-        <v>1868.341358050533</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="P27" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q27" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R27" t="n">
         <v>2553.812354695766</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>700.9649929333267</v>
+        <v>562.9550599890977</v>
       </c>
       <c r="C28" t="n">
-        <v>700.9649929333267</v>
+        <v>394.0188770611906</v>
       </c>
       <c r="D28" t="n">
-        <v>550.8483535209909</v>
+        <v>394.0188770611906</v>
       </c>
       <c r="E28" t="n">
-        <v>402.9352599385978</v>
+        <v>394.0188770611906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.9352599385978</v>
+        <v>394.0188770611906</v>
       </c>
       <c r="G28" t="n">
-        <v>235.7210651131766</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H28" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I28" t="n">
         <v>93.84834815160704</v>
@@ -6385,49 +6385,49 @@
         <v>172.8304710411609</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117245</v>
+        <v>432.4591980117241</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948587</v>
+        <v>820.2210160948582</v>
       </c>
       <c r="M28" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139317</v>
       </c>
       <c r="N28" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931024</v>
       </c>
       <c r="O28" t="n">
         <v>2021.168930946054</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.699365782258</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335693</v>
       </c>
       <c r="R28" t="n">
-        <v>2361.553154294195</v>
+        <v>2429.412499335693</v>
       </c>
       <c r="S28" t="n">
-        <v>2361.553154294195</v>
+        <v>2246.242309074623</v>
       </c>
       <c r="T28" t="n">
-        <v>2141.874372008577</v>
+        <v>2026.563526789005</v>
       </c>
       <c r="U28" t="n">
-        <v>1852.798158323304</v>
+        <v>1737.487313103733</v>
       </c>
       <c r="V28" t="n">
-        <v>1620.812757842074</v>
+        <v>1482.802824897846</v>
       </c>
       <c r="W28" t="n">
-        <v>1331.395587805114</v>
+        <v>1193.385654860885</v>
       </c>
       <c r="X28" t="n">
-        <v>1103.406036907096</v>
+        <v>965.3961039628675</v>
       </c>
       <c r="Y28" t="n">
-        <v>882.6134577635664</v>
+        <v>744.6035248193374</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D29" t="n">
         <v>1591.032978284208</v>
@@ -6449,64 +6449,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G29" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>424.1437450015209</v>
+        <v>424.1437450015214</v>
       </c>
       <c r="K29" t="n">
-        <v>893.7741287892027</v>
+        <v>893.7741287892031</v>
       </c>
       <c r="L29" t="n">
-        <v>1513.293909294977</v>
+        <v>1513.293909294978</v>
       </c>
       <c r="M29" t="n">
         <v>2234.298471234015</v>
       </c>
       <c r="N29" t="n">
-        <v>2971.583449151121</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O29" t="n">
         <v>3654.445485610259</v>
       </c>
       <c r="P29" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U29" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W29" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X29" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K30" t="n">
-        <v>93.84834815160704</v>
+        <v>424.3570907149657</v>
       </c>
       <c r="L30" t="n">
-        <v>107.3505653988756</v>
+        <v>915.0894235587168</v>
       </c>
       <c r="M30" t="n">
-        <v>699.3689196510031</v>
+        <v>1507.107777810844</v>
       </c>
       <c r="N30" t="n">
-        <v>1321.464883050339</v>
+        <v>2129.20374121018</v>
       </c>
       <c r="O30" t="n">
-        <v>1868.341358050533</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P30" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q30" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>562.9550599890986</v>
+        <v>571.8714428665041</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7680286442463</v>
+        <v>402.9352599385973</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6513892319106</v>
+        <v>402.9352599385973</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7382956495174</v>
+        <v>402.9352599385973</v>
       </c>
       <c r="F31" t="n">
-        <v>93.84834815160704</v>
+        <v>402.9352599385973</v>
       </c>
       <c r="G31" t="n">
-        <v>93.84834815160704</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
         <v>172.8304710411609</v>
@@ -6625,7 +6625,7 @@
         <v>432.4591980117245</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948588</v>
+        <v>820.2210160948586</v>
       </c>
       <c r="M31" t="n">
         <v>1239.450608139318</v>
@@ -6637,34 +6637,34 @@
         <v>2021.168930946054</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.699365782258</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335693</v>
       </c>
       <c r="R31" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294194</v>
       </c>
       <c r="S31" t="n">
-        <v>2246.242309074625</v>
+        <v>2255.15869195203</v>
       </c>
       <c r="T31" t="n">
-        <v>2026.563526789007</v>
+        <v>2035.479909666412</v>
       </c>
       <c r="U31" t="n">
-        <v>1737.487313103733</v>
+        <v>1746.403695981139</v>
       </c>
       <c r="V31" t="n">
-        <v>1482.802824897846</v>
+        <v>1491.719207775252</v>
       </c>
       <c r="W31" t="n">
-        <v>1193.385654860886</v>
+        <v>1202.302037738291</v>
       </c>
       <c r="X31" t="n">
-        <v>965.3961039628684</v>
+        <v>974.312486840274</v>
       </c>
       <c r="Y31" t="n">
-        <v>744.6035248193383</v>
+        <v>753.5199076967439</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1949.298676890959</v>
       </c>
       <c r="D32" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E32" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963572</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G32" t="n">
         <v>380.2757138127629</v>
@@ -6701,49 +6701,49 @@
         <v>373.3442236507199</v>
       </c>
       <c r="K32" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384016</v>
       </c>
       <c r="L32" t="n">
         <v>1462.494387944176</v>
       </c>
       <c r="M32" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883213</v>
       </c>
       <c r="N32" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800319</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259457</v>
       </c>
       <c r="P32" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946805</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052812</v>
       </c>
       <c r="R32" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U32" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V32" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W32" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X32" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K33" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668115</v>
       </c>
       <c r="L33" t="n">
-        <v>107.3505653988756</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M33" t="n">
-        <v>699.3689196510031</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N33" t="n">
-        <v>1321.464883050339</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O33" t="n">
-        <v>1868.341358050533</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="P33" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q33" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R33" t="n">
         <v>2553.812354695766</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>640.7000154876874</v>
+        <v>495.0957149475987</v>
       </c>
       <c r="C34" t="n">
-        <v>640.7000154876874</v>
+        <v>326.1595320196915</v>
       </c>
       <c r="D34" t="n">
-        <v>490.5833760753517</v>
+        <v>326.1595320196915</v>
       </c>
       <c r="E34" t="n">
-        <v>490.5833760753517</v>
+        <v>326.1595320196915</v>
       </c>
       <c r="F34" t="n">
-        <v>343.6934285774414</v>
+        <v>179.2695845217812</v>
       </c>
       <c r="G34" t="n">
-        <v>176.4792337520202</v>
+        <v>179.2695845217812</v>
       </c>
       <c r="H34" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I34" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J34" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411608</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117244</v>
       </c>
       <c r="L34" t="n">
-        <v>820.2210160948587</v>
+        <v>820.2210160948586</v>
       </c>
       <c r="M34" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139317</v>
       </c>
       <c r="N34" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931024</v>
       </c>
       <c r="O34" t="n">
         <v>2021.168930946054</v>
       </c>
       <c r="P34" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.699365782258</v>
       </c>
       <c r="Q34" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335693</v>
       </c>
       <c r="R34" t="n">
-        <v>2361.553154294195</v>
+        <v>2361.553154294194</v>
       </c>
       <c r="S34" t="n">
         <v>2178.382964033125</v>
       </c>
       <c r="T34" t="n">
-        <v>2104.308482287594</v>
+        <v>1958.704181747507</v>
       </c>
       <c r="U34" t="n">
-        <v>1815.232268602321</v>
+        <v>1669.627968062234</v>
       </c>
       <c r="V34" t="n">
-        <v>1560.547780396434</v>
+        <v>1414.943479856347</v>
       </c>
       <c r="W34" t="n">
-        <v>1271.130610359474</v>
+        <v>1125.526309819386</v>
       </c>
       <c r="X34" t="n">
-        <v>1043.141059461457</v>
+        <v>897.5367589213686</v>
       </c>
       <c r="Y34" t="n">
-        <v>822.3484803179272</v>
+        <v>676.7441797778384</v>
       </c>
     </row>
     <row r="35">
@@ -6923,61 +6923,61 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J35" t="n">
         <v>373.3442236507199</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384016</v>
       </c>
       <c r="L35" t="n">
         <v>1462.494387944176</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883213</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800319</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.645964259457</v>
       </c>
       <c r="P35" t="n">
-        <v>4151.951912946806</v>
+        <v>4151.951912946805</v>
       </c>
       <c r="Q35" t="n">
-        <v>4515.534099052813</v>
+        <v>4515.534099052812</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.861033895493</v>
@@ -7008,31 +7008,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J36" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K36" t="n">
-        <v>424.3570907149658</v>
+        <v>572.0050724668116</v>
       </c>
       <c r="L36" t="n">
-        <v>915.089423558717</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M36" t="n">
-        <v>915.089423558717</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N36" t="n">
-        <v>1537.185386958053</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O36" t="n">
-        <v>2084.061861958247</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P36" t="n">
-        <v>2503.645380384323</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.812354695766</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.8714428665048</v>
+        <v>874.9184063975742</v>
       </c>
       <c r="C37" t="n">
-        <v>402.9352599385978</v>
+        <v>705.9822234696674</v>
       </c>
       <c r="D37" t="n">
-        <v>402.9352599385978</v>
+        <v>555.8655840573317</v>
       </c>
       <c r="E37" t="n">
-        <v>402.9352599385978</v>
+        <v>407.9524904749386</v>
       </c>
       <c r="F37" t="n">
-        <v>402.9352599385978</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G37" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H37" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J37" t="n">
         <v>172.8304710411609</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117244</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948584</v>
       </c>
       <c r="M37" t="n">
         <v>1239.450608139318</v>
@@ -7108,10 +7108,10 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.699365782258</v>
       </c>
       <c r="Q37" t="n">
         <v>2429.412499335694</v>
@@ -7120,25 +7120,25 @@
         <v>2429.412499335694</v>
       </c>
       <c r="S37" t="n">
-        <v>2255.15869195203</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.479909666412</v>
+        <v>2209.733717050075</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.40369598114</v>
+        <v>2049.450659512209</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.719207775253</v>
+        <v>1794.766171306322</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.302037738292</v>
+        <v>1505.349001269361</v>
       </c>
       <c r="X37" t="n">
-        <v>974.3124868402747</v>
+        <v>1277.359450371344</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.5199076967446</v>
+        <v>1056.566871227814</v>
       </c>
     </row>
     <row r="38">
@@ -7166,25 +7166,25 @@
         <v>380.2757138127629</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J38" t="n">
         <v>373.3442236507199</v>
       </c>
       <c r="K38" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384016</v>
       </c>
       <c r="L38" t="n">
         <v>1462.494387944176</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883213</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800319</v>
       </c>
       <c r="O38" t="n">
         <v>3654.445485610258</v>
@@ -7193,28 +7193,28 @@
         <v>4202.751434297606</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.41740758035</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347199</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.740996026518</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746067</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.861033895493</v>
@@ -7245,34 +7245,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J39" t="n">
-        <v>163.4947075553185</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K39" t="n">
-        <v>163.4947075553185</v>
+        <v>572.0050724668115</v>
       </c>
       <c r="L39" t="n">
-        <v>654.2270403990698</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M39" t="n">
-        <v>1246.245394651197</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N39" t="n">
-        <v>1868.341358050533</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O39" t="n">
-        <v>1868.341358050533</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P39" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q39" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>562.955059989098</v>
+        <v>721.9880822788405</v>
       </c>
       <c r="C40" t="n">
-        <v>394.0188770611911</v>
+        <v>553.0518993509336</v>
       </c>
       <c r="D40" t="n">
-        <v>243.9022376488554</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E40" t="n">
-        <v>243.9022376488554</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F40" t="n">
-        <v>243.9022376488554</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G40" t="n">
         <v>235.7210651131766</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J40" t="n">
         <v>172.8304710411609</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117245</v>
+        <v>432.4591980117244</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948588</v>
+        <v>820.2210160948586</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139317</v>
       </c>
       <c r="N40" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931024</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.699365782258</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335693</v>
       </c>
       <c r="R40" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294194</v>
       </c>
       <c r="S40" t="n">
-        <v>2246.242309074625</v>
+        <v>2185.596549078748</v>
       </c>
       <c r="T40" t="n">
-        <v>2026.563526789007</v>
+        <v>2185.596549078748</v>
       </c>
       <c r="U40" t="n">
-        <v>1737.487313103733</v>
+        <v>1896.520335393474</v>
       </c>
       <c r="V40" t="n">
-        <v>1482.802824897847</v>
+        <v>1641.835847187588</v>
       </c>
       <c r="W40" t="n">
-        <v>1193.385654860886</v>
+        <v>1352.418677150628</v>
       </c>
       <c r="X40" t="n">
-        <v>965.3961039628687</v>
+        <v>1124.42912625261</v>
       </c>
       <c r="Y40" t="n">
-        <v>744.6035248193377</v>
+        <v>903.6365471090802</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D41" t="n">
         <v>1591.032978284208</v>
@@ -7397,7 +7397,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G41" t="n">
         <v>380.2757138127629</v>
@@ -7412,22 +7412,22 @@
         <v>373.3442236507199</v>
       </c>
       <c r="K41" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384016</v>
       </c>
       <c r="L41" t="n">
         <v>1462.494387944176</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883213</v>
       </c>
       <c r="N41" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800319</v>
       </c>
       <c r="O41" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.645964259457</v>
       </c>
       <c r="P41" t="n">
-        <v>4151.951912946806</v>
+        <v>4151.951912946805</v>
       </c>
       <c r="Q41" t="n">
         <v>4566.333620403613</v>
@@ -7445,16 +7445,16 @@
         <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K42" t="n">
-        <v>424.3570907149658</v>
+        <v>572.0050724668115</v>
       </c>
       <c r="L42" t="n">
-        <v>562.2602880588616</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M42" t="n">
-        <v>1154.278642310989</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N42" t="n">
-        <v>1776.374605710325</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O42" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P42" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.812354695766</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>495.0957149475992</v>
+        <v>951.5089153771639</v>
       </c>
       <c r="C43" t="n">
-        <v>326.1595320196923</v>
+        <v>782.572732449257</v>
       </c>
       <c r="D43" t="n">
-        <v>326.1595320196923</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="E43" t="n">
-        <v>326.1595320196923</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F43" t="n">
-        <v>326.1595320196923</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G43" t="n">
-        <v>158.9453371942715</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I43" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117245</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L43" t="n">
         <v>820.2210160948587</v>
@@ -7579,40 +7579,40 @@
         <v>1239.450608139318</v>
       </c>
       <c r="N43" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931024</v>
       </c>
       <c r="O43" t="n">
         <v>2021.168930946054</v>
       </c>
       <c r="P43" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.699365782258</v>
       </c>
       <c r="Q43" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335693</v>
       </c>
       <c r="R43" t="n">
-        <v>2361.553154294195</v>
+        <v>2361.553154294194</v>
       </c>
       <c r="S43" t="n">
-        <v>2178.382964033125</v>
+        <v>2361.553154294194</v>
       </c>
       <c r="T43" t="n">
-        <v>1958.704181747507</v>
+        <v>2361.553154294194</v>
       </c>
       <c r="U43" t="n">
-        <v>1669.627968062234</v>
+        <v>2126.041168491799</v>
       </c>
       <c r="V43" t="n">
-        <v>1414.943479856347</v>
+        <v>1871.356680285912</v>
       </c>
       <c r="W43" t="n">
-        <v>1125.526309819386</v>
+        <v>1581.939510248951</v>
       </c>
       <c r="X43" t="n">
-        <v>897.536758921369</v>
+        <v>1353.949959350934</v>
       </c>
       <c r="Y43" t="n">
-        <v>676.7441797778389</v>
+        <v>1133.157380207404</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>424.14374500152</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K44" t="n">
-        <v>893.7741287892018</v>
+        <v>842.9746074384016</v>
       </c>
       <c r="L44" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M44" t="n">
-        <v>2234.298471234014</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N44" t="n">
         <v>2971.58344915112</v>
       </c>
       <c r="O44" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P44" t="n">
         <v>4202.751434297606</v>
@@ -7728,10 +7728,10 @@
         <v>241.4963299034529</v>
       </c>
       <c r="K45" t="n">
-        <v>302.0892292003572</v>
+        <v>572.0050724668115</v>
       </c>
       <c r="L45" t="n">
-        <v>792.8215620441084</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M45" t="n">
         <v>1384.839916296236</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>495.0957149475992</v>
+        <v>643.4451496746559</v>
       </c>
       <c r="C46" t="n">
-        <v>326.1595320196923</v>
+        <v>474.508966746749</v>
       </c>
       <c r="D46" t="n">
-        <v>326.1595320196923</v>
+        <v>324.3923273344133</v>
       </c>
       <c r="E46" t="n">
-        <v>326.1595320196923</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="F46" t="n">
-        <v>326.1595320196923</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G46" t="n">
-        <v>158.9453371942714</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I46" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K46" t="n">
         <v>432.4591980117245</v>
@@ -7828,28 +7828,28 @@
         <v>2429.412499335694</v>
       </c>
       <c r="R46" t="n">
-        <v>2361.553154294195</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="S46" t="n">
-        <v>2178.382964033125</v>
+        <v>2246.242309074624</v>
       </c>
       <c r="T46" t="n">
-        <v>1958.704181747507</v>
+        <v>2026.563526789006</v>
       </c>
       <c r="U46" t="n">
-        <v>1669.627968062234</v>
+        <v>1737.487313103733</v>
       </c>
       <c r="V46" t="n">
-        <v>1414.943479856347</v>
+        <v>1563.292914583404</v>
       </c>
       <c r="W46" t="n">
-        <v>1125.526309819386</v>
+        <v>1273.875744546443</v>
       </c>
       <c r="X46" t="n">
-        <v>897.536758921369</v>
+        <v>1045.886193648426</v>
       </c>
       <c r="Y46" t="n">
-        <v>676.7441797778389</v>
+        <v>825.0936145048956</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7979,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>208.3214547517356</v>
+        <v>258.8041889468121</v>
       </c>
       <c r="L2" t="n">
-        <v>271.649412930509</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M2" t="n">
-        <v>264.5839477933977</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N2" t="n">
         <v>263.3879167614743</v>
       </c>
       <c r="O2" t="n">
-        <v>214.5102874732696</v>
+        <v>264.9930216683461</v>
       </c>
       <c r="P2" t="n">
         <v>266.3720910676141</v>
@@ -8061,19 +8061,19 @@
         <v>129.8481964236088</v>
       </c>
       <c r="L3" t="n">
-        <v>176.2495065059443</v>
+        <v>178.2892129380686</v>
       </c>
       <c r="M3" t="n">
-        <v>180.0744745527947</v>
+        <v>178.0347681206704</v>
       </c>
       <c r="N3" t="n">
-        <v>168.9501955242219</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O3" t="n">
         <v>130.8188201934042</v>
       </c>
       <c r="P3" t="n">
-        <v>124.5219861368073</v>
+        <v>175.0047203318838</v>
       </c>
       <c r="Q3" t="n">
         <v>184.1458149818875</v>
@@ -8216,19 +8216,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>255.9772818167572</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
-        <v>267.3451747559029</v>
+        <v>265.1715861506252</v>
       </c>
       <c r="M5" t="n">
         <v>259.4212368511231</v>
       </c>
       <c r="N5" t="n">
-        <v>255.9144619035325</v>
+        <v>258.0880505088102</v>
       </c>
       <c r="O5" t="n">
-        <v>206.3768508508745</v>
+        <v>260.1731688314972</v>
       </c>
       <c r="P5" t="n">
         <v>210.9873633211545</v>
@@ -8295,25 +8295,25 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
-        <v>179.4738158616228</v>
+        <v>177.3002272563451</v>
       </c>
       <c r="L6" t="n">
         <v>175.9947778369091</v>
       </c>
       <c r="M6" t="n">
-        <v>174.67017620544</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N6" t="n">
-        <v>111.7499598249992</v>
+        <v>165.5462778056219</v>
       </c>
       <c r="O6" t="n">
-        <v>124.673618687554</v>
+        <v>178.4699366681766</v>
       </c>
       <c r="P6" t="n">
         <v>119.5899201578276</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1624432744798</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>19.9967424266265</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>176.7006603516638</v>
       </c>
       <c r="L8" t="n">
-        <v>124.9213632208982</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,7 +8465,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>71.77603955739042</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>15.41635017929458</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>119.4781955245753</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>85.75159889092816</v>
+        <v>76.94808852746789</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.31264782909273</v>
+        <v>51.31264782909278</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>51.31264782909238</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>51.31264782909182</v>
+        <v>51.3126478290925</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>51.31264782909102</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>51.31264782909187</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>51.31264782909091</v>
+        <v>51.31264782909278</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,13 +10829,13 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>51.31264782909102</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>51.31264782909085</v>
+        <v>51.31264782909187</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>51.3126478290925</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>297.5962186219962</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>281.5642955683868</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>134.4547062665175</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.7544218737421</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3421432342315</v>
       </c>
       <c r="I13" t="n">
-        <v>88.19109165959752</v>
+        <v>88.19109165959735</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>76.72963392800081</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.19703531187</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>210.4120151505511</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613729383</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.29152613728939</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440906</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>191.2348873243401</v>
+        <v>188.7060033224017</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>50.2915261372895</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>50.29152613729292</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>62.34368079027754</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>73.70233505062259</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>50.2915261372931</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>50.2915261372913</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>131.7496387660398</v>
       </c>
       <c r="E22" t="n">
-        <v>127.5052245859319</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>76.00797063971605</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>208.7776434368471</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>90.63179579304214</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S28" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>22.47209684741058</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>143.301660067224</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>76.00797063971638</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>55.88696578548151</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>144.1482575346866</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S37" t="n">
-        <v>8.827219048632031</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>127.5052245859325</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>157.4426920668449</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>7.141449195166587</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>76.00797063971604</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25834,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>53.0285856040485</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.153637185780099e-12</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>76.00797063971595</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>79.68518878870202</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>850120.4312422689</v>
+        <v>850120.4312422704</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>909724.1267079208</v>
+        <v>909724.1267079202</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>909724.1267079207</v>
+        <v>909724.1267079201</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>909724.1267079205</v>
+        <v>909724.1267079202</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>915350.9667344936</v>
+        <v>915350.9667344937</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>915350.9667344938</v>
+        <v>915350.9667344937</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>915350.9667344937</v>
+        <v>915350.9667344936</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>915350.9667344937</v>
+        <v>915350.9667344936</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>915350.9667344936</v>
+        <v>915350.9667344938</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651769</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
-        <v>468561.6931261848</v>
+        <v>468561.6931261861</v>
       </c>
       <c r="F2" t="n">
-        <v>501674.8572737696</v>
+        <v>501674.857273769</v>
       </c>
       <c r="G2" t="n">
         <v>501674.8572737693</v>
       </c>
       <c r="H2" t="n">
-        <v>501674.8572737692</v>
+        <v>501674.857273769</v>
       </c>
       <c r="I2" t="n">
+        <v>504176.8606990996</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504176.8606990993</v>
+      </c>
+      <c r="K2" t="n">
         <v>504176.8606990995</v>
       </c>
-      <c r="J2" t="n">
-        <v>504176.8606990994</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504176.8606990994</v>
-      </c>
       <c r="L2" t="n">
-        <v>504176.8606990996</v>
+        <v>504176.8606990995</v>
       </c>
       <c r="M2" t="n">
         <v>504176.8606990995</v>
       </c>
       <c r="N2" t="n">
-        <v>504176.8606990996</v>
+        <v>504176.8606990997</v>
       </c>
       <c r="O2" t="n">
+        <v>504176.8606990994</v>
+      </c>
+      <c r="P2" t="n">
         <v>504176.8606990995</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504176.8606990993</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>12004.91953871608</v>
       </c>
       <c r="D3" t="n">
-        <v>496473.4545489188</v>
+        <v>496473.4545489184</v>
       </c>
       <c r="E3" t="n">
-        <v>788486.8672720542</v>
+        <v>788486.867272058</v>
       </c>
       <c r="F3" t="n">
-        <v>134440.4234106219</v>
+        <v>134440.4234106177</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>3446.086611511793</v>
+        <v>3446.086611511853</v>
       </c>
       <c r="J3" t="n">
-        <v>13208.50450573649</v>
+        <v>13208.50450573655</v>
       </c>
       <c r="K3" t="n">
-        <v>852.8104317184983</v>
+        <v>852.8104317184398</v>
       </c>
       <c r="L3" t="n">
-        <v>46364.53843949028</v>
+        <v>46364.5384394903</v>
       </c>
       <c r="M3" t="n">
-        <v>194089.2993105563</v>
+        <v>194089.2993105573</v>
       </c>
       <c r="N3" t="n">
-        <v>35347.57181577988</v>
+        <v>35347.5718157786</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,13 +26418,13 @@
         <v>392210.9417384904</v>
       </c>
       <c r="C4" t="n">
-        <v>389279.094329008</v>
+        <v>389279.0943290079</v>
       </c>
       <c r="D4" t="n">
-        <v>262432.1219338425</v>
+        <v>262432.1219338426</v>
       </c>
       <c r="E4" t="n">
-        <v>7426.071852562111</v>
+        <v>7426.071852562113</v>
       </c>
       <c r="F4" t="n">
         <v>7500.835840494316</v>
@@ -26439,25 +26439,25 @@
         <v>8630.19643162395</v>
       </c>
       <c r="J4" t="n">
-        <v>8630.19643162391</v>
+        <v>8630.196431623941</v>
       </c>
       <c r="K4" t="n">
-        <v>8630.196431623928</v>
+        <v>8630.196431623943</v>
       </c>
       <c r="L4" t="n">
-        <v>8630.196431623912</v>
+        <v>8630.19643162393</v>
       </c>
       <c r="M4" t="n">
         <v>8630.19643162391</v>
       </c>
       <c r="N4" t="n">
-        <v>8630.196431623912</v>
+        <v>8630.196431623915</v>
       </c>
       <c r="O4" t="n">
-        <v>8630.196431623906</v>
+        <v>8630.196431623928</v>
       </c>
       <c r="P4" t="n">
-        <v>8630.19643162391</v>
+        <v>8630.196431623943</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>37661.87961689879</v>
       </c>
       <c r="D5" t="n">
-        <v>59989.22157378156</v>
+        <v>59989.22157378155</v>
       </c>
       <c r="E5" t="n">
-        <v>88800.19709784177</v>
+        <v>88800.19709784204</v>
       </c>
       <c r="F5" t="n">
-        <v>100142.1285138384</v>
+        <v>100142.1285138383</v>
       </c>
       <c r="G5" t="n">
         <v>100142.1285138384</v>
@@ -26488,13 +26488,13 @@
         <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="J5" t="n">
         <v>100930.0394572385</v>
       </c>
       <c r="K5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="L5" t="n">
         <v>100930.0394572385</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44647.60238243223</v>
+        <v>44647.60238243205</v>
       </c>
       <c r="C6" t="n">
-        <v>74205.21268055406</v>
+        <v>74205.21268055412</v>
       </c>
       <c r="D6" t="n">
-        <v>-305743.6918913659</v>
+        <v>-305743.6918913653</v>
       </c>
       <c r="E6" t="n">
-        <v>-416151.4430962733</v>
+        <v>-416329.8007484321</v>
       </c>
       <c r="F6" t="n">
-        <v>259591.4695088149</v>
+        <v>259545.5645132531</v>
       </c>
       <c r="G6" t="n">
-        <v>394031.8929194366</v>
+        <v>393985.987923871</v>
       </c>
       <c r="H6" t="n">
-        <v>394031.8929194368</v>
+        <v>393985.9879238704</v>
       </c>
       <c r="I6" t="n">
-        <v>391170.5381987252</v>
+        <v>391134.641216861</v>
       </c>
       <c r="J6" t="n">
-        <v>381408.1203045006</v>
+        <v>381372.223322636</v>
       </c>
       <c r="K6" t="n">
-        <v>393763.8143785184</v>
+        <v>393727.9173966543</v>
       </c>
       <c r="L6" t="n">
-        <v>348252.086370747</v>
+        <v>348216.1893888824</v>
       </c>
       <c r="M6" t="n">
-        <v>200527.3254996809</v>
+        <v>200491.4285178154</v>
       </c>
       <c r="N6" t="n">
-        <v>359269.0529944573</v>
+        <v>359233.1560125944</v>
       </c>
       <c r="O6" t="n">
-        <v>394616.6248102371</v>
+        <v>394580.7278283727</v>
       </c>
       <c r="P6" t="n">
-        <v>394616.6248102369</v>
+        <v>394580.7278283727</v>
       </c>
     </row>
   </sheetData>
@@ -26741,43 +26741,43 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>548.2872340031313</v>
+        <v>548.2872340031308</v>
       </c>
       <c r="E3" t="n">
-        <v>1240.272786979234</v>
+        <v>1240.272786979237</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="I3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="J3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="K3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="L3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="M3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="P3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
     </row>
     <row r="4">
@@ -26793,16 +26793,16 @@
         <v>53.79631798062264</v>
       </c>
       <c r="D4" t="n">
-        <v>236.9894715873899</v>
+        <v>236.9894715873898</v>
       </c>
       <c r="E4" t="n">
-        <v>1015.826485883133</v>
+        <v>1015.826485883136</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="H4" t="n">
         <v>1160.145290326006</v>
@@ -26963,19 +26963,19 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>513.265973284006</v>
+        <v>513.2659732840056</v>
       </c>
       <c r="E3" t="n">
-        <v>691.9855529761028</v>
+        <v>691.9855529761062</v>
       </c>
       <c r="F3" t="n">
-        <v>117.7682617371518</v>
+        <v>117.7682617371481</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27015,13 +27015,13 @@
         <v>3.313583785546101</v>
       </c>
       <c r="D4" t="n">
-        <v>183.1931536067673</v>
+        <v>183.1931536067671</v>
       </c>
       <c r="E4" t="n">
-        <v>778.8370142957426</v>
+        <v>778.8370142957465</v>
       </c>
       <c r="F4" t="n">
-        <v>144.3188044428744</v>
+        <v>144.3188044428696</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.95906156908177</v>
+        <v>12.959061569082</v>
       </c>
       <c r="J4" t="n">
-        <v>50.48273419507609</v>
+        <v>50.48273419507632</v>
       </c>
       <c r="K4" t="n">
-        <v>3.313583785546371</v>
+        <v>3.313583785546143</v>
       </c>
       <c r="L4" t="n">
         <v>183.1931536067671</v>
       </c>
       <c r="M4" t="n">
-        <v>778.8370142957426</v>
+        <v>778.8370142957467</v>
       </c>
       <c r="N4" t="n">
-        <v>144.3188044428744</v>
+        <v>144.3188044428691</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27261,13 +27261,13 @@
         <v>3.313583785546101</v>
       </c>
       <c r="L4" t="n">
-        <v>183.1931536067673</v>
+        <v>183.1931536067671</v>
       </c>
       <c r="M4" t="n">
-        <v>778.8370142957426</v>
+        <v>778.8370142957465</v>
       </c>
       <c r="N4" t="n">
-        <v>144.3188044428744</v>
+        <v>144.3188044428696</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>356.3933115466349</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>206.909162189371</v>
+        <v>156.4264279942944</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>93.57486856939363</v>
       </c>
       <c r="S2" t="n">
-        <v>156.4291245048363</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>204.4090352062711</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>200.8555174238556</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>324.0830978950731</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27461,10 +27461,10 @@
         <v>122.2257647932392</v>
       </c>
       <c r="D3" t="n">
-        <v>102.9798732856153</v>
+        <v>96.96233136956221</v>
       </c>
       <c r="E3" t="n">
-        <v>107.1623462603244</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>161.217503498281</v>
       </c>
     </row>
     <row r="4">
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>105.0123614484636</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>103.9994468248256</v>
       </c>
       <c r="G4" t="n">
         <v>167.9494798159088</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.20428827091266</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>175.2269211939606</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>311.4765737903849</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>374.6541973916985</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>151.2518041370232</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.0252816852793</v>
+        <v>115.6794790769778</v>
       </c>
       <c r="S5" t="n">
         <v>205.8118405263978</v>
@@ -27673,10 +27673,10 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
-        <v>273.9559404895123</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>295.4446507367904</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27695,10 +27695,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>118.9121810076931</v>
       </c>
       <c r="D6" t="n">
-        <v>93.64874758401612</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>103.8487624747783</v>
@@ -27746,13 +27746,13 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
-        <v>146.0647829915492</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
-        <v>178.5526293648614</v>
+        <v>172.1401082615712</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>185.4167902720928</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>126.0356622013147</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>96.00916567729175</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9278262653587</v>
+        <v>114.1315082847361</v>
       </c>
       <c r="H7" t="n">
         <v>161.6656840978772</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.07751490248382</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
       </c>
       <c r="S7" t="n">
-        <v>169.119693879324</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T7" t="n">
         <v>227.6757534850358</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>173.1033480481166</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>217.7554334260088</v>
       </c>
       <c r="E8" t="n">
-        <v>204.5760946580857</v>
+        <v>144.940898484872</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>169.8865741543217</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>316.9013483057789</v>
+        <v>316.901348305779</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4996339366141</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7925506119886</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>213.4470963305687</v>
@@ -27910,16 +27910,16 @@
         <v>251.1693193250415</v>
       </c>
       <c r="V8" t="n">
-        <v>90.76278688274499</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>112.2514971300231</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>149.2484670686637</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.2406758138964449</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1641823579963</v>
+        <v>136.1641823579964</v>
       </c>
       <c r="H9" t="n">
         <v>100.8455528282427</v>
       </c>
       <c r="I9" t="n">
-        <v>48.79234240873035</v>
+        <v>48.79234240873038</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.93562580784757</v>
+        <v>26.93562580784763</v>
       </c>
       <c r="S9" t="n">
         <v>149.7775443490901</v>
       </c>
       <c r="T9" t="n">
-        <v>65.10348154169998</v>
+        <v>195.411181826436</v>
       </c>
       <c r="U9" t="n">
         <v>225.8637942648423</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>14.70551157352983</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>125.7171278767278</v>
       </c>
       <c r="J10" t="n">
-        <v>23.45705193892931</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8371838463582</v>
+        <v>132.8371838463583</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>206.7859975847755</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.7210812318639</v>
       </c>
       <c r="U10" t="n">
-        <v>274.4130510369199</v>
+        <v>286.2650994646217</v>
       </c>
       <c r="V10" t="n">
-        <v>15.14817173643809</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>49.53352674920109</v>
+        <v>153.7985827143721</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.20416978493721</v>
+        <v>2.204169784937207</v>
       </c>
       <c r="H8" t="n">
-        <v>22.5734538099882</v>
+        <v>22.57345380998818</v>
       </c>
       <c r="I8" t="n">
-        <v>84.97625563379185</v>
+        <v>84.97625563379178</v>
       </c>
       <c r="J8" t="n">
-        <v>187.0761552843147</v>
+        <v>187.0761552843145</v>
       </c>
       <c r="K8" t="n">
-        <v>280.3786622807068</v>
+        <v>280.3786622807066</v>
       </c>
       <c r="L8" t="n">
-        <v>347.834523336479</v>
+        <v>347.8345233364787</v>
       </c>
       <c r="M8" t="n">
-        <v>387.0329277493561</v>
+        <v>387.0329277493557</v>
       </c>
       <c r="N8" t="n">
-        <v>393.2955251508089</v>
+        <v>393.2955251508087</v>
       </c>
       <c r="O8" t="n">
-        <v>371.3778118518396</v>
+        <v>371.3778118518392</v>
       </c>
       <c r="P8" t="n">
-        <v>316.9623702862021</v>
+        <v>316.9623702862019</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.0255398631382</v>
+        <v>238.0255398631381</v>
       </c>
       <c r="R8" t="n">
-        <v>138.4576802530621</v>
+        <v>138.457680253062</v>
       </c>
       <c r="S8" t="n">
-        <v>50.22751897425671</v>
+        <v>50.22751897425667</v>
       </c>
       <c r="T8" t="n">
-        <v>9.64875323356264</v>
+        <v>9.648753233562632</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763335827949767</v>
+        <v>0.1763335827949766</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179334805214282</v>
+        <v>1.179334805214281</v>
       </c>
       <c r="H9" t="n">
-        <v>11.38989140825373</v>
+        <v>11.38989140825372</v>
       </c>
       <c r="I9" t="n">
-        <v>40.60429044268473</v>
+        <v>40.60429044268469</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4212764873722</v>
+        <v>111.4212764873721</v>
       </c>
       <c r="K9" t="n">
-        <v>190.4367084367291</v>
+        <v>190.436708436729</v>
       </c>
       <c r="L9" t="n">
-        <v>256.0656558426888</v>
+        <v>256.0656558426886</v>
       </c>
       <c r="M9" t="n">
-        <v>298.8165425317065</v>
+        <v>298.8165425317063</v>
       </c>
       <c r="N9" t="n">
-        <v>306.725327256148</v>
+        <v>306.7253272561477</v>
       </c>
       <c r="O9" t="n">
-        <v>280.5937507827157</v>
+        <v>280.5937507827155</v>
       </c>
       <c r="P9" t="n">
-        <v>225.201222585173</v>
+        <v>225.2012225851728</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5410533813881</v>
+        <v>150.5410533813879</v>
       </c>
       <c r="R9" t="n">
-        <v>73.22220834479556</v>
+        <v>73.2222083447955</v>
       </c>
       <c r="S9" t="n">
-        <v>21.90562675474773</v>
+        <v>21.90562675474771</v>
       </c>
       <c r="T9" t="n">
-        <v>4.753546868385636</v>
+        <v>4.753546868385633</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07758781613251861</v>
+        <v>0.07758781613251854</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9887146842679415</v>
+        <v>0.9887146842679407</v>
       </c>
       <c r="H10" t="n">
-        <v>8.790572374673159</v>
+        <v>8.790572374673152</v>
       </c>
       <c r="I10" t="n">
-        <v>29.73334705053047</v>
+        <v>29.73334705053044</v>
       </c>
       <c r="J10" t="n">
-        <v>69.90212817774346</v>
+        <v>69.90212817774341</v>
       </c>
       <c r="K10" t="n">
-        <v>114.8706696813117</v>
+        <v>114.8706696813116</v>
       </c>
       <c r="L10" t="n">
-        <v>146.9949086047083</v>
+        <v>146.9949086047082</v>
       </c>
       <c r="M10" t="n">
-        <v>154.9855209166556</v>
+        <v>154.9855209166554</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3003116389297</v>
+        <v>151.3003116389296</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7503264636178</v>
+        <v>139.7503264636177</v>
       </c>
       <c r="P10" t="n">
-        <v>119.5805469045517</v>
+        <v>119.5805469045516</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.79137233447283</v>
+        <v>82.79137233447275</v>
       </c>
       <c r="R10" t="n">
-        <v>44.45620753081126</v>
+        <v>44.45620753081121</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23060045219676</v>
+        <v>17.23060045219674</v>
       </c>
       <c r="T10" t="n">
-        <v>4.224508196417568</v>
+        <v>4.224508196417564</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05392989186916051</v>
+        <v>0.05392989186916047</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.986021254187872</v>
+        <v>4.986021254187884</v>
       </c>
       <c r="H11" t="n">
-        <v>51.06309016945156</v>
+        <v>51.06309016945168</v>
       </c>
       <c r="I11" t="n">
-        <v>192.2235844020781</v>
+        <v>192.2235844020786</v>
       </c>
       <c r="J11" t="n">
-        <v>423.1823214226283</v>
+        <v>423.1823214226293</v>
       </c>
       <c r="K11" t="n">
-        <v>634.240601112401</v>
+        <v>634.2406011124025</v>
       </c>
       <c r="L11" t="n">
-        <v>786.8315490702532</v>
+        <v>786.8315490702552</v>
       </c>
       <c r="M11" t="n">
-        <v>875.5017045494168</v>
+        <v>875.5017045494188</v>
       </c>
       <c r="N11" t="n">
-        <v>889.6682374378781</v>
+        <v>889.6682374378803</v>
       </c>
       <c r="O11" t="n">
-        <v>840.0884885915475</v>
+        <v>840.0884885915494</v>
       </c>
       <c r="P11" t="n">
-        <v>716.9960888787842</v>
+        <v>716.9960888787859</v>
       </c>
       <c r="Q11" t="n">
-        <v>538.434202713181</v>
+        <v>538.4342027131822</v>
       </c>
       <c r="R11" t="n">
-        <v>313.2031576083792</v>
+        <v>313.2031576083799</v>
       </c>
       <c r="S11" t="n">
-        <v>113.6189593298062</v>
+        <v>113.6189593298065</v>
       </c>
       <c r="T11" t="n">
-        <v>21.82630804020742</v>
+        <v>21.82630804020747</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3988817003350297</v>
+        <v>0.3988817003350306</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.667756560672315</v>
+        <v>2.667756560672321</v>
       </c>
       <c r="H12" t="n">
-        <v>25.76491204649315</v>
+        <v>25.76491204649321</v>
       </c>
       <c r="I12" t="n">
-        <v>91.85039035648103</v>
+        <v>91.85039035648124</v>
       </c>
       <c r="J12" t="n">
-        <v>252.0444915501857</v>
+        <v>252.0444915501863</v>
       </c>
       <c r="K12" t="n">
-        <v>430.7841811152308</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>579.2424935793113</v>
+        <v>579.2424935793126</v>
       </c>
       <c r="M12" t="n">
-        <v>675.9486689036825</v>
+        <v>675.9486689036841</v>
       </c>
       <c r="N12" t="n">
-        <v>693.8390188215246</v>
+        <v>693.8390188215262</v>
       </c>
       <c r="O12" t="n">
-        <v>488.1455322431502</v>
+        <v>405.6381855766286</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>509.4244962217172</v>
       </c>
       <c r="Q12" t="n">
-        <v>340.5367848324871</v>
+        <v>340.5367848324879</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>49.55240804582125</v>
+        <v>49.55240804582137</v>
       </c>
       <c r="T12" t="n">
-        <v>10.75293104937656</v>
+        <v>10.75293104937659</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1755103000442313</v>
+        <v>0.1755103000442317</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.236557484716651</v>
+        <v>2.236557484716656</v>
       </c>
       <c r="H13" t="n">
-        <v>19.88502927320806</v>
+        <v>19.88502927320811</v>
       </c>
       <c r="I13" t="n">
-        <v>67.25938326766077</v>
+        <v>67.25938326766094</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1246141694672</v>
+        <v>158.1246141694676</v>
       </c>
       <c r="K13" t="n">
-        <v>259.8473150425345</v>
+        <v>259.8473150425352</v>
       </c>
       <c r="L13" t="n">
-        <v>332.5151009550557</v>
+        <v>332.5151009550564</v>
       </c>
       <c r="M13" t="n">
-        <v>350.5905518997201</v>
+        <v>350.590551899721</v>
       </c>
       <c r="N13" t="n">
-        <v>342.2542921839583</v>
+        <v>342.2542921839591</v>
       </c>
       <c r="O13" t="n">
-        <v>316.1272342943137</v>
+        <v>316.1272342943145</v>
       </c>
       <c r="P13" t="n">
-        <v>270.5014616060938</v>
+        <v>270.5014616060944</v>
       </c>
       <c r="Q13" t="n">
-        <v>187.2811908338643</v>
+        <v>187.2811908338648</v>
       </c>
       <c r="R13" t="n">
-        <v>100.5637574491687</v>
+        <v>100.5637574491689</v>
       </c>
       <c r="S13" t="n">
-        <v>38.97709725638018</v>
+        <v>38.97709725638027</v>
       </c>
       <c r="T13" t="n">
-        <v>9.556200161971145</v>
+        <v>9.556200161971168</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1219940446209084</v>
+        <v>0.1219940446209087</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377423</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.9117101112228</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704058</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874063</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830428</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.543971036426</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293305</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229604</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086948</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687521</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148604</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987161</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665718</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901938</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088189</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32081,34 +32081,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504299</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927635</v>
       </c>
       <c r="O15" t="n">
-        <v>248.629137007698</v>
+        <v>694.9967242426202</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>344.3187317059983</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862158</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013753</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548566</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284922</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900884</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640617</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.880357426502</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465961</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,10 +32181,10 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551968</v>
       </c>
       <c r="U16" t="n">
         <v>0.1335778080704643</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377423</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122283</v>
+        <v>55.9117101112228</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704058</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874063</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830428</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364265</v>
+        <v>861.543971036426</v>
       </c>
       <c r="M17" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293305</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229604</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086948</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687521</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148604</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987161</v>
       </c>
       <c r="S17" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665718</v>
       </c>
       <c r="U17" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901938</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088189</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K18" t="n">
-        <v>471.6886536848224</v>
+        <v>471.6886536848222</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504299</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927635</v>
       </c>
       <c r="O18" t="n">
-        <v>422.3544583169084</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>413.732621286796</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862158</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013753</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,34 +32382,34 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548566</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284922</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900884</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640617</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265022</v>
+        <v>383.880357426502</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465961</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q19" t="n">
         <v>205.0641983561742</v>
@@ -32418,10 +32418,10 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551968</v>
       </c>
       <c r="U19" t="n">
         <v>0.1335778080704643</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -32473,25 +32473,25 @@
         <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086952</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R20" t="n">
         <v>342.9428985987162</v>
@@ -32503,7 +32503,7 @@
         <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H21" t="n">
         <v>28.2113810308819</v>
@@ -32549,22 +32549,22 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K21" t="n">
-        <v>471.6886536848224</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504301</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927637</v>
+        <v>487.0792071670522</v>
       </c>
       <c r="O21" t="n">
-        <v>422.3544583169088</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,7 +32576,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T21" t="n">
         <v>11.77395965821092</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H22" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L22" t="n">
         <v>364.0885788640618</v>
@@ -32640,13 +32640,13 @@
         <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O22" t="n">
         <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q22" t="n">
         <v>205.0641983561742</v>
@@ -32655,7 +32655,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T22" t="n">
         <v>10.46359496551969</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -32710,25 +32710,25 @@
         <v>463.3649706874064</v>
       </c>
       <c r="K23" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086952</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R23" t="n">
         <v>342.9428985987162</v>
@@ -32740,7 +32740,7 @@
         <v>23.89879272665719</v>
       </c>
       <c r="U23" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H24" t="n">
         <v>28.2113810308819</v>
@@ -32786,25 +32786,25 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K24" t="n">
-        <v>348.1857632660258</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504301</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>413.7326212867947</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,7 +32813,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T24" t="n">
         <v>11.77395965821092</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H25" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L25" t="n">
         <v>364.0885788640618</v>
@@ -32877,13 +32877,13 @@
         <v>383.8803574265021</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O25" t="n">
         <v>346.1446266465962</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q25" t="n">
         <v>205.0641983561742</v>
@@ -32892,7 +32892,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T25" t="n">
         <v>10.46359496551969</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -32947,25 +32947,25 @@
         <v>463.3649706874064</v>
       </c>
       <c r="K26" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086952</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R26" t="n">
         <v>342.9428985987162</v>
@@ -32977,7 +32977,7 @@
         <v>23.89879272665719</v>
       </c>
       <c r="U26" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H27" t="n">
         <v>28.2113810308819</v>
@@ -33023,34 +33023,34 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M27" t="n">
-        <v>604.6315993235842</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982453</v>
+        <v>413.7326212867947</v>
       </c>
       <c r="Q27" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T27" t="n">
         <v>11.77395965821092</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H28" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J28" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K28" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L28" t="n">
         <v>364.0885788640618</v>
@@ -33114,13 +33114,13 @@
         <v>383.8803574265021</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O28" t="n">
         <v>346.1446266465962</v>
       </c>
       <c r="P28" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q28" t="n">
         <v>205.0641983561742</v>
@@ -33129,7 +33129,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T28" t="n">
         <v>10.46359496551969</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -33184,25 +33184,25 @@
         <v>463.3649706874064</v>
       </c>
       <c r="K29" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086952</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R29" t="n">
         <v>342.9428985987162</v>
@@ -33214,7 +33214,7 @@
         <v>23.89879272665719</v>
       </c>
       <c r="U29" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H30" t="n">
         <v>28.2113810308819</v>
@@ -33263,31 +33263,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L30" t="n">
-        <v>152.1929830599434</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504301</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426204</v>
+        <v>147.6720980399091</v>
       </c>
       <c r="P30" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T30" t="n">
         <v>11.77395965821092</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H31" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J31" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K31" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L31" t="n">
         <v>364.0885788640618</v>
@@ -33351,13 +33351,13 @@
         <v>383.8803574265021</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O31" t="n">
         <v>346.1446266465962</v>
       </c>
       <c r="P31" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q31" t="n">
         <v>205.0641983561742</v>
@@ -33366,7 +33366,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T31" t="n">
         <v>10.46359496551969</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -33421,25 +33421,25 @@
         <v>463.3649706874064</v>
       </c>
       <c r="K32" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M32" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086952</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P32" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R32" t="n">
         <v>342.9428985987162</v>
@@ -33451,7 +33451,7 @@
         <v>23.89879272665719</v>
       </c>
       <c r="U32" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H33" t="n">
         <v>28.2113810308819</v>
@@ -33497,34 +33497,34 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L33" t="n">
-        <v>152.1929830599434</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504301</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>557.7961431982453</v>
+        <v>413.7326212867947</v>
       </c>
       <c r="Q33" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T33" t="n">
         <v>11.77395965821092</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H34" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J34" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K34" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L34" t="n">
         <v>364.0885788640618</v>
@@ -33588,13 +33588,13 @@
         <v>383.8803574265021</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O34" t="n">
         <v>346.1446266465962</v>
       </c>
       <c r="P34" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q34" t="n">
         <v>205.0641983561742</v>
@@ -33603,7 +33603,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T34" t="n">
         <v>10.46359496551969</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -33658,25 +33658,25 @@
         <v>463.3649706874064</v>
       </c>
       <c r="K35" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M35" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086952</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R35" t="n">
         <v>342.9428985987162</v>
@@ -33688,7 +33688,7 @@
         <v>23.89879272665719</v>
       </c>
       <c r="U35" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H36" t="n">
         <v>28.2113810308819</v>
@@ -33734,34 +33734,34 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K36" t="n">
-        <v>471.6886536848224</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>190.6554855117215</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T36" t="n">
         <v>11.77395965821092</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H37" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J37" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K37" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L37" t="n">
         <v>364.0885788640618</v>
@@ -33825,13 +33825,13 @@
         <v>383.8803574265021</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O37" t="n">
         <v>346.1446266465962</v>
       </c>
       <c r="P37" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q37" t="n">
         <v>205.0641983561742</v>
@@ -33840,7 +33840,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T37" t="n">
         <v>10.46359496551969</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -33895,25 +33895,25 @@
         <v>463.3649706874064</v>
       </c>
       <c r="K38" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086952</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R38" t="n">
         <v>342.9428985987162</v>
@@ -33925,7 +33925,7 @@
         <v>23.89879272665719</v>
       </c>
       <c r="U38" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H39" t="n">
         <v>28.2113810308819</v>
@@ -33971,34 +33971,34 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>197.1874846502137</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504301</v>
+        <v>467.4901056247186</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T39" t="n">
         <v>11.77395965821092</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H40" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L40" t="n">
         <v>364.0885788640618</v>
@@ -34062,13 +34062,13 @@
         <v>383.8803574265021</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O40" t="n">
         <v>346.1446266465962</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q40" t="n">
         <v>205.0641983561742</v>
@@ -34077,7 +34077,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T40" t="n">
         <v>10.46359496551969</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -34132,25 +34132,25 @@
         <v>463.3649706874064</v>
       </c>
       <c r="K41" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086952</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R41" t="n">
         <v>342.9428985987162</v>
@@ -34162,7 +34162,7 @@
         <v>23.89879272665719</v>
       </c>
       <c r="U41" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H42" t="n">
         <v>28.2113810308819</v>
@@ -34208,34 +34208,34 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K42" t="n">
-        <v>471.6886536848224</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L42" t="n">
-        <v>277.8505387131024</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504301</v>
+        <v>467.4901056247186</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T42" t="n">
         <v>11.77395965821092</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H43" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J43" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K43" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L43" t="n">
         <v>364.0885788640618</v>
@@ -34299,13 +34299,13 @@
         <v>383.8803574265021</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O43" t="n">
         <v>346.1446266465962</v>
       </c>
       <c r="P43" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q43" t="n">
         <v>205.0641983561742</v>
@@ -34314,7 +34314,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T43" t="n">
         <v>10.46359496551969</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H44" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -34369,25 +34369,25 @@
         <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L44" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M44" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N44" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O44" t="n">
-        <v>919.8578442086952</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P44" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q44" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R44" t="n">
         <v>342.9428985987162</v>
@@ -34399,7 +34399,7 @@
         <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H45" t="n">
         <v>28.2113810308819</v>
@@ -34445,22 +34445,22 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K45" t="n">
-        <v>199.0463877591108</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L45" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M45" t="n">
-        <v>740.1323715504301</v>
+        <v>467.4901056247186</v>
       </c>
       <c r="N45" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O45" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,7 +34472,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T45" t="n">
         <v>11.77395965821092</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H46" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J46" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K46" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L46" t="n">
         <v>364.0885788640618</v>
@@ -34536,13 +34536,13 @@
         <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O46" t="n">
         <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q46" t="n">
         <v>205.0641983561742</v>
@@ -34551,7 +34551,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T46" t="n">
         <v>10.46359496551969</v>
@@ -34699,19 +34699,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="L2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="P2" t="n">
         <v>48.44302776295223</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>50.48273419507654</v>
+      </c>
+      <c r="M3" t="n">
         <v>48.44302776295223</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="N3" t="n">
-        <v>50.48273419507654</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>50.48273419507654</v>
@@ -34936,19 +34936,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>53.79631798062264</v>
+        <v>51.62272937534495</v>
       </c>
       <c r="M5" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="N5" t="n">
-        <v>51.62272937534497</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>53.79631798062264</v>
+        <v>51.62272937534495</v>
       </c>
       <c r="L6" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="M6" t="n">
-        <v>51.62272937534495</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.03025075762838</v>
+        <v>26.02699318425471</v>
       </c>
       <c r="K8" t="n">
-        <v>60.28881123572626</v>
+        <v>236.9894715873898</v>
       </c>
       <c r="L8" t="n">
-        <v>236.9894715873899</v>
+        <v>112.0681083664915</v>
       </c>
       <c r="M8" t="n">
-        <v>156.6866945220833</v>
+        <v>156.686694522083</v>
       </c>
       <c r="N8" t="n">
-        <v>163.882461554218</v>
+        <v>163.8824615542177</v>
       </c>
       <c r="O8" t="n">
-        <v>213.0556399875433</v>
+        <v>141.2796004301525</v>
       </c>
       <c r="P8" t="n">
-        <v>85.7293745309326</v>
+        <v>85.72937453093232</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.71984998868876</v>
+        <v>15.71984998868857</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>110.6746851611143</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.59526946237011</v>
+        <v>52.59526946236997</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5112760628147</v>
+        <v>236.9894715873898</v>
       </c>
       <c r="M9" t="n">
-        <v>156.6825086096882</v>
+        <v>156.6825086096879</v>
       </c>
       <c r="N9" t="n">
-        <v>175.3836151728147</v>
+        <v>175.3836151728144</v>
       </c>
       <c r="O9" t="n">
-        <v>223.7491052291994</v>
+        <v>214.9455948657389</v>
       </c>
       <c r="P9" t="n">
-        <v>91.22681517084271</v>
+        <v>91.22681517084251</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.55927929536654</v>
+        <v>10.55927929536642</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>92.60117785542887</v>
+        <v>92.60117785542879</v>
       </c>
       <c r="L10" t="n">
-        <v>174.5849338650245</v>
+        <v>174.5849338650244</v>
       </c>
       <c r="M10" t="n">
-        <v>194.5693978784962</v>
+        <v>194.569397878496</v>
       </c>
       <c r="N10" t="n">
-        <v>195.4324840181583</v>
+        <v>195.4324840181582</v>
       </c>
       <c r="O10" t="n">
-        <v>164.3354543776575</v>
+        <v>164.3354543776574</v>
       </c>
       <c r="P10" t="n">
-        <v>116.8591061694452</v>
+        <v>116.8591061694451</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>242.136416895942</v>
+        <v>242.136416895943</v>
       </c>
       <c r="K11" t="n">
-        <v>414.1507500674205</v>
+        <v>414.1507500674219</v>
       </c>
       <c r="L11" t="n">
-        <v>551.0651341002661</v>
+        <v>551.0651341002679</v>
       </c>
       <c r="M11" t="n">
-        <v>645.1554713221441</v>
+        <v>645.1554713221461</v>
       </c>
       <c r="N11" t="n">
-        <v>660.2551738412872</v>
+        <v>660.2551738412894</v>
       </c>
       <c r="O11" t="n">
-        <v>609.9902771698607</v>
+        <v>609.9902771698627</v>
       </c>
       <c r="P11" t="n">
-        <v>485.7630931235147</v>
+        <v>485.7630931235164</v>
       </c>
       <c r="Q11" t="n">
-        <v>316.1285128387315</v>
+        <v>316.1285128387327</v>
       </c>
       <c r="R11" t="n">
-        <v>97.61761979424705</v>
+        <v>97.61761979424779</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>125.206864883519</v>
+        <v>125.2068648835196</v>
       </c>
       <c r="K12" t="n">
-        <v>292.9427421408718</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>440.6881137994371</v>
+        <v>440.6881137994384</v>
       </c>
       <c r="M12" t="n">
-        <v>533.8146349816641</v>
+        <v>533.8146349816657</v>
       </c>
       <c r="N12" t="n">
-        <v>562.4973067381914</v>
+        <v>562.4973067381929</v>
       </c>
       <c r="O12" t="n">
-        <v>345.5492877987057</v>
+        <v>263.0419411321841</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>375.450088807387</v>
       </c>
       <c r="Q12" t="n">
-        <v>200.5550107464656</v>
+        <v>200.5550107464664</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>64.76543405279446</v>
+        <v>64.76543405279483</v>
       </c>
       <c r="K13" t="n">
-        <v>237.5778232166517</v>
+        <v>237.5778232166523</v>
       </c>
       <c r="L13" t="n">
-        <v>360.1051262153718</v>
+        <v>360.1051262153726</v>
       </c>
       <c r="M13" t="n">
-        <v>390.1744288615607</v>
+        <v>390.1744288615616</v>
       </c>
       <c r="N13" t="n">
-        <v>386.3864645631869</v>
+        <v>386.3864645631877</v>
       </c>
       <c r="O13" t="n">
-        <v>340.7123622083534</v>
+        <v>340.7123622083541</v>
       </c>
       <c r="P13" t="n">
-        <v>267.7800208709873</v>
+        <v>267.7800208709879</v>
       </c>
       <c r="Q13" t="n">
-        <v>101.11914758217</v>
+        <v>101.1191475821704</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.31906616072</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380622</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020578</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870081</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404109</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284115</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094302</v>
       </c>
       <c r="O15" t="n">
-        <v>106.0328925632536</v>
+        <v>552.4004797981758</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>210.344324291668</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066044</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883426</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209158</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606358</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607202</v>
+        <v>282.31906616072</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380622</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020578</v>
       </c>
       <c r="N17" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870081</v>
       </c>
       <c r="P17" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404109</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845842</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>149.1393755069151</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K18" t="n">
-        <v>333.8472147104634</v>
+        <v>333.8472147104632</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284115</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094302</v>
       </c>
       <c r="O18" t="n">
-        <v>279.758213872464</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>279.7582138724658</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066044</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L19" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883426</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209158</v>
       </c>
       <c r="O19" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606358</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L20" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M20" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404111</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845841</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069151</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K21" t="n">
-        <v>333.8472147104634</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M21" t="n">
         <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094305</v>
+        <v>355.7374950837189</v>
       </c>
       <c r="O21" t="n">
-        <v>279.7582138724644</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L22" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M22" t="n">
         <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O22" t="n">
         <v>370.7297545606359</v>
@@ -36358,25 +36358,25 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L23" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M23" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N23" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404111</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R23" t="n">
         <v>178.6700086136768</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K24" t="n">
-        <v>210.3443242916668</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M24" t="n">
         <v>597.9983376284117</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O24" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L25" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M25" t="n">
         <v>423.4642343883427</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O25" t="n">
         <v>370.7297545606359</v>
@@ -36595,28 +36595,28 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L26" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M26" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N26" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134828</v>
+        <v>605.157040442575</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404111</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R26" t="n">
-        <v>178.670008613675</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>149.1393755069151</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M27" t="n">
-        <v>462.4975654015659</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O27" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839151</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K28" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L28" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M28" t="n">
         <v>423.4642343883427</v>
       </c>
       <c r="N28" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O28" t="n">
         <v>370.7297545606359</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>333.6317139898119</v>
+        <v>333.6317139898126</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L29" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M29" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N29" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404111</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R29" t="n">
-        <v>127.3573607845841</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L30" t="n">
-        <v>13.63860328006922</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M30" t="n">
         <v>597.9983376284117</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O30" t="n">
-        <v>552.400479798176</v>
+        <v>5.075853595464669</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839151</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K31" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L31" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M31" t="n">
         <v>423.4642343883427</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O31" t="n">
         <v>370.7297545606359</v>
@@ -37069,28 +37069,28 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L32" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M32" t="n">
-        <v>779.6000841311491</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N32" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O32" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P32" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404111</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R32" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136759</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L33" t="n">
-        <v>13.63860328006924</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M33" t="n">
         <v>597.9983376284117</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O33" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839151</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="Q33" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K34" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L34" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M34" t="n">
         <v>423.4642343883427</v>
       </c>
       <c r="N34" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O34" t="n">
         <v>370.7297545606359</v>
@@ -37306,28 +37306,28 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L35" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M35" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N35" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P35" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404111</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R35" t="n">
-        <v>178.670008613675</v>
+        <v>178.6700086136768</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K36" t="n">
-        <v>333.8472147104634</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O36" t="n">
-        <v>552.400479798176</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.67371142570003</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K37" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L37" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M37" t="n">
         <v>423.4642343883427</v>
       </c>
       <c r="N37" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O37" t="n">
         <v>370.7297545606359</v>
@@ -37543,28 +37543,28 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L38" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M38" t="n">
-        <v>779.6000841311491</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N38" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870084</v>
+        <v>741.0722806160995</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404111</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845841</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>70.34985798354698</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284117</v>
+        <v>325.3560717027003</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K40" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L40" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M40" t="n">
         <v>423.4642343883427</v>
       </c>
       <c r="N40" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O40" t="n">
         <v>370.7297545606359</v>
@@ -37780,28 +37780,28 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L41" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M41" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N41" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q41" t="n">
-        <v>418.5673812695019</v>
+        <v>418.5673812695028</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845841</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K42" t="n">
-        <v>333.8472147104634</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L42" t="n">
-        <v>139.2961589332282</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284117</v>
+        <v>325.3560717027003</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O42" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L43" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M43" t="n">
         <v>423.4642343883427</v>
       </c>
       <c r="N43" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O43" t="n">
         <v>370.7297545606359</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>333.631713989811</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L44" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M44" t="n">
-        <v>728.287436302058</v>
+        <v>779.6000841311504</v>
       </c>
       <c r="N44" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O44" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P44" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q44" t="n">
-        <v>367.2547334404111</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R44" t="n">
-        <v>127.3573607845841</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>149.1393755069151</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K45" t="n">
-        <v>61.20494878475177</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L45" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M45" t="n">
-        <v>597.9983376284117</v>
+        <v>325.3560717027003</v>
       </c>
       <c r="N45" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O45" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K46" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L46" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M46" t="n">
         <v>423.4642343883427</v>
       </c>
       <c r="N46" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O46" t="n">
         <v>370.7297545606359</v>
